--- a/All_Anime_List.xlsx
+++ b/All_Anime_List.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="150">
+  <si>
+    <t>NO.</t>
+  </si>
   <si>
     <t>NAME</t>
   </si>
@@ -481,11 +484,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <b/>
@@ -511,6 +519,10 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -518,10 +530,6 @@
       <u/>
       <sz val="10.0"/>
       <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <u/>
@@ -533,6 +541,7 @@
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -552,14 +561,19 @@
     <font>
       <color rgb="FF000000"/>
     </font>
-    <font/>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -592,56 +606,65 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -655,7 +678,13 @@
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -872,9 +901,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.86"/>
-    <col customWidth="1" min="2" max="2" width="48.71"/>
-    <col customWidth="1" min="3" max="3" width="101.14"/>
+    <col customWidth="1" min="1" max="1" width="10.29"/>
+    <col customWidth="1" min="2" max="2" width="44.86"/>
+    <col customWidth="1" min="3" max="3" width="48.71"/>
+    <col customWidth="1" min="4" max="4" width="118.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -887,3844 +917,3997 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="D8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="D10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
+      <c r="D11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="D12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="D13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="D14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="D15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="D16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
+      <c r="D17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
+      <c r="D18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
+      <c r="D19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
+      <c r="D20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
+      <c r="D21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
+      <c r="D22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="9">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
+      <c r="D23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
+      <c r="D24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+      <c r="D25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
+      <c r="D26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="A27" s="9">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
+      <c r="C27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="9">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
+      <c r="D28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="9">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
+      <c r="D29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
+      <c r="D30" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="9">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
+      <c r="D31" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="9">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
+      <c r="D32" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="9">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
+      <c r="D33" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="9">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
+      <c r="D34" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="9">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
+      <c r="D35" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="9">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
+      <c r="D36" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="20">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="D37" s="23" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="20">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="22" t="s">
         <v>112</v>
       </c>
+      <c r="D38" s="23" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="19" t="s">
+      <c r="A39" s="20">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>114</v>
       </c>
+      <c r="C39" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="20">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="22" t="s">
         <v>117</v>
       </c>
+      <c r="D40" s="23" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="20">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="22" t="s">
         <v>120</v>
       </c>
+      <c r="D41" s="23" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="18" t="s">
+      <c r="A42" s="20">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>122</v>
       </c>
+      <c r="C42" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="20" t="s">
+      <c r="A43" s="20">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="25" t="s">
         <v>125</v>
       </c>
+      <c r="D43" s="23" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="20" t="s">
+      <c r="A44" s="20">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="25" t="s">
         <v>128</v>
       </c>
+      <c r="D44" s="23" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="20">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="25" t="s">
         <v>131</v>
       </c>
+      <c r="D45" s="23" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="20" t="s">
+      <c r="A46" s="20">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="25" t="s">
         <v>134</v>
       </c>
+      <c r="D46" s="23" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="20" t="s">
+      <c r="A47" s="20">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="25" t="s">
         <v>137</v>
       </c>
+      <c r="D47" s="24" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="20">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="25" t="s">
         <v>140</v>
       </c>
+      <c r="D48" s="23" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="18" t="s">
+      <c r="A49" s="20">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>142</v>
       </c>
+      <c r="C49" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="20" t="s">
+      <c r="A50" s="20">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="25" t="s">
         <v>145</v>
       </c>
+      <c r="D50" s="23" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" s="20" t="s">
+      <c r="A51" s="20">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="25" t="s">
         <v>148</v>
       </c>
+      <c r="D51" s="23" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="52">
-      <c r="B52" s="22"/>
+      <c r="C52" s="27"/>
     </row>
     <row r="53">
-      <c r="B53" s="22"/>
+      <c r="C53" s="27"/>
     </row>
     <row r="54">
-      <c r="B54" s="22"/>
+      <c r="C54" s="27"/>
     </row>
     <row r="55">
-      <c r="B55" s="22"/>
+      <c r="C55" s="27"/>
     </row>
     <row r="56">
-      <c r="B56" s="22"/>
+      <c r="C56" s="27"/>
     </row>
     <row r="57">
-      <c r="B57" s="22"/>
+      <c r="C57" s="27"/>
     </row>
     <row r="58">
-      <c r="B58" s="22"/>
+      <c r="C58" s="27"/>
     </row>
     <row r="59">
-      <c r="B59" s="22"/>
+      <c r="C59" s="27"/>
     </row>
     <row r="60">
-      <c r="B60" s="22"/>
+      <c r="C60" s="27"/>
     </row>
     <row r="61">
-      <c r="B61" s="22"/>
+      <c r="C61" s="27"/>
     </row>
     <row r="62">
-      <c r="B62" s="22"/>
+      <c r="C62" s="27"/>
     </row>
     <row r="63">
-      <c r="B63" s="22"/>
+      <c r="C63" s="27"/>
     </row>
     <row r="64">
-      <c r="B64" s="22"/>
+      <c r="C64" s="27"/>
     </row>
     <row r="65">
-      <c r="B65" s="22"/>
+      <c r="C65" s="27"/>
     </row>
     <row r="66">
-      <c r="B66" s="22"/>
+      <c r="C66" s="27"/>
     </row>
     <row r="67">
-      <c r="B67" s="22"/>
+      <c r="C67" s="27"/>
     </row>
     <row r="68">
-      <c r="B68" s="22"/>
+      <c r="C68" s="27"/>
     </row>
     <row r="69">
-      <c r="B69" s="22"/>
+      <c r="C69" s="27"/>
     </row>
     <row r="70">
-      <c r="B70" s="22"/>
+      <c r="C70" s="27"/>
     </row>
     <row r="71">
-      <c r="B71" s="22"/>
+      <c r="C71" s="27"/>
     </row>
     <row r="72">
-      <c r="B72" s="22"/>
+      <c r="C72" s="27"/>
     </row>
     <row r="73">
-      <c r="B73" s="22"/>
+      <c r="C73" s="27"/>
     </row>
     <row r="74">
-      <c r="B74" s="22"/>
+      <c r="C74" s="27"/>
     </row>
     <row r="75">
-      <c r="B75" s="22"/>
+      <c r="C75" s="27"/>
     </row>
     <row r="76">
-      <c r="B76" s="22"/>
+      <c r="C76" s="27"/>
     </row>
     <row r="77">
-      <c r="B77" s="22"/>
+      <c r="C77" s="27"/>
     </row>
     <row r="78">
-      <c r="B78" s="22"/>
+      <c r="C78" s="27"/>
     </row>
     <row r="79">
-      <c r="B79" s="22"/>
+      <c r="C79" s="27"/>
     </row>
     <row r="80">
-      <c r="B80" s="22"/>
+      <c r="C80" s="27"/>
     </row>
     <row r="81">
-      <c r="B81" s="22"/>
+      <c r="C81" s="27"/>
     </row>
     <row r="82">
-      <c r="B82" s="22"/>
+      <c r="C82" s="27"/>
     </row>
     <row r="83">
-      <c r="B83" s="22"/>
+      <c r="C83" s="27"/>
     </row>
     <row r="84">
-      <c r="B84" s="22"/>
+      <c r="C84" s="27"/>
     </row>
     <row r="85">
-      <c r="B85" s="22"/>
+      <c r="C85" s="27"/>
     </row>
     <row r="86">
-      <c r="B86" s="22"/>
+      <c r="C86" s="27"/>
     </row>
     <row r="87">
-      <c r="B87" s="22"/>
+      <c r="C87" s="27"/>
     </row>
     <row r="88">
-      <c r="B88" s="22"/>
+      <c r="C88" s="27"/>
     </row>
     <row r="89">
-      <c r="B89" s="22"/>
+      <c r="C89" s="27"/>
     </row>
     <row r="90">
-      <c r="B90" s="22"/>
+      <c r="C90" s="27"/>
     </row>
     <row r="91">
-      <c r="B91" s="22"/>
+      <c r="C91" s="27"/>
     </row>
     <row r="92">
-      <c r="B92" s="22"/>
+      <c r="C92" s="27"/>
     </row>
     <row r="93">
-      <c r="B93" s="22"/>
+      <c r="C93" s="27"/>
     </row>
     <row r="94">
-      <c r="B94" s="22"/>
+      <c r="C94" s="27"/>
     </row>
     <row r="95">
-      <c r="B95" s="22"/>
+      <c r="C95" s="27"/>
     </row>
     <row r="96">
-      <c r="B96" s="22"/>
+      <c r="C96" s="27"/>
     </row>
     <row r="97">
-      <c r="B97" s="22"/>
+      <c r="C97" s="27"/>
     </row>
     <row r="98">
-      <c r="B98" s="22"/>
+      <c r="C98" s="27"/>
     </row>
     <row r="99">
-      <c r="B99" s="22"/>
+      <c r="C99" s="27"/>
     </row>
     <row r="100">
-      <c r="B100" s="22"/>
+      <c r="C100" s="27"/>
     </row>
     <row r="101">
-      <c r="B101" s="22"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102">
-      <c r="B102" s="22"/>
+      <c r="C102" s="27"/>
     </row>
     <row r="103">
-      <c r="B103" s="22"/>
+      <c r="C103" s="27"/>
     </row>
     <row r="104">
-      <c r="B104" s="22"/>
+      <c r="C104" s="27"/>
     </row>
     <row r="105">
-      <c r="B105" s="22"/>
+      <c r="C105" s="27"/>
     </row>
     <row r="106">
-      <c r="B106" s="22"/>
+      <c r="C106" s="27"/>
     </row>
     <row r="107">
-      <c r="B107" s="22"/>
+      <c r="C107" s="27"/>
     </row>
     <row r="108">
-      <c r="B108" s="22"/>
+      <c r="C108" s="27"/>
     </row>
     <row r="109">
-      <c r="B109" s="22"/>
+      <c r="C109" s="27"/>
     </row>
     <row r="110">
-      <c r="B110" s="22"/>
+      <c r="C110" s="27"/>
     </row>
     <row r="111">
-      <c r="B111" s="22"/>
+      <c r="C111" s="27"/>
     </row>
     <row r="112">
-      <c r="B112" s="22"/>
+      <c r="C112" s="27"/>
     </row>
     <row r="113">
-      <c r="B113" s="22"/>
+      <c r="C113" s="27"/>
     </row>
     <row r="114">
-      <c r="B114" s="22"/>
+      <c r="C114" s="27"/>
     </row>
     <row r="115">
-      <c r="B115" s="22"/>
+      <c r="C115" s="27"/>
     </row>
     <row r="116">
-      <c r="B116" s="22"/>
+      <c r="C116" s="27"/>
     </row>
     <row r="117">
-      <c r="B117" s="22"/>
+      <c r="C117" s="27"/>
     </row>
     <row r="118">
-      <c r="B118" s="22"/>
+      <c r="C118" s="27"/>
     </row>
     <row r="119">
-      <c r="B119" s="22"/>
+      <c r="C119" s="27"/>
     </row>
     <row r="120">
-      <c r="B120" s="22"/>
+      <c r="C120" s="27"/>
     </row>
     <row r="121">
-      <c r="B121" s="22"/>
+      <c r="C121" s="27"/>
     </row>
     <row r="122">
-      <c r="B122" s="22"/>
+      <c r="C122" s="27"/>
     </row>
     <row r="123">
-      <c r="B123" s="22"/>
+      <c r="C123" s="27"/>
     </row>
     <row r="124">
-      <c r="B124" s="22"/>
+      <c r="C124" s="27"/>
     </row>
     <row r="125">
-      <c r="B125" s="22"/>
+      <c r="C125" s="27"/>
     </row>
     <row r="126">
-      <c r="B126" s="22"/>
+      <c r="C126" s="27"/>
     </row>
     <row r="127">
-      <c r="B127" s="22"/>
+      <c r="C127" s="27"/>
     </row>
     <row r="128">
-      <c r="B128" s="22"/>
+      <c r="C128" s="27"/>
     </row>
     <row r="129">
-      <c r="B129" s="22"/>
+      <c r="C129" s="27"/>
     </row>
     <row r="130">
-      <c r="B130" s="22"/>
+      <c r="C130" s="27"/>
     </row>
     <row r="131">
-      <c r="B131" s="22"/>
+      <c r="C131" s="27"/>
     </row>
     <row r="132">
-      <c r="B132" s="22"/>
+      <c r="C132" s="27"/>
     </row>
     <row r="133">
-      <c r="B133" s="22"/>
+      <c r="C133" s="27"/>
     </row>
     <row r="134">
-      <c r="B134" s="22"/>
+      <c r="C134" s="27"/>
     </row>
     <row r="135">
-      <c r="B135" s="22"/>
+      <c r="C135" s="27"/>
     </row>
     <row r="136">
-      <c r="B136" s="22"/>
+      <c r="C136" s="27"/>
     </row>
     <row r="137">
-      <c r="B137" s="22"/>
+      <c r="C137" s="27"/>
     </row>
     <row r="138">
-      <c r="B138" s="22"/>
+      <c r="C138" s="27"/>
     </row>
     <row r="139">
-      <c r="B139" s="22"/>
+      <c r="C139" s="27"/>
     </row>
     <row r="140">
-      <c r="B140" s="22"/>
+      <c r="C140" s="27"/>
     </row>
     <row r="141">
-      <c r="B141" s="22"/>
+      <c r="C141" s="27"/>
     </row>
     <row r="142">
-      <c r="B142" s="22"/>
+      <c r="C142" s="27"/>
     </row>
     <row r="143">
-      <c r="B143" s="22"/>
+      <c r="C143" s="27"/>
     </row>
     <row r="144">
-      <c r="B144" s="22"/>
+      <c r="C144" s="27"/>
     </row>
     <row r="145">
-      <c r="B145" s="22"/>
+      <c r="C145" s="27"/>
     </row>
     <row r="146">
-      <c r="B146" s="22"/>
+      <c r="C146" s="27"/>
     </row>
     <row r="147">
-      <c r="B147" s="22"/>
+      <c r="C147" s="27"/>
     </row>
     <row r="148">
-      <c r="B148" s="22"/>
+      <c r="C148" s="27"/>
     </row>
     <row r="149">
-      <c r="B149" s="22"/>
+      <c r="C149" s="27"/>
     </row>
     <row r="150">
-      <c r="B150" s="22"/>
+      <c r="C150" s="27"/>
     </row>
     <row r="151">
-      <c r="B151" s="22"/>
+      <c r="C151" s="27"/>
     </row>
     <row r="152">
-      <c r="B152" s="22"/>
+      <c r="C152" s="27"/>
     </row>
     <row r="153">
-      <c r="B153" s="22"/>
+      <c r="C153" s="27"/>
     </row>
     <row r="154">
-      <c r="B154" s="22"/>
+      <c r="C154" s="27"/>
     </row>
     <row r="155">
-      <c r="B155" s="22"/>
+      <c r="C155" s="27"/>
     </row>
     <row r="156">
-      <c r="B156" s="22"/>
+      <c r="C156" s="27"/>
     </row>
     <row r="157">
-      <c r="B157" s="22"/>
+      <c r="C157" s="27"/>
     </row>
     <row r="158">
-      <c r="B158" s="22"/>
+      <c r="C158" s="27"/>
     </row>
     <row r="159">
-      <c r="B159" s="22"/>
+      <c r="C159" s="27"/>
     </row>
     <row r="160">
-      <c r="B160" s="22"/>
+      <c r="C160" s="27"/>
     </row>
     <row r="161">
-      <c r="B161" s="22"/>
+      <c r="C161" s="27"/>
     </row>
     <row r="162">
-      <c r="B162" s="22"/>
+      <c r="C162" s="27"/>
     </row>
     <row r="163">
-      <c r="B163" s="22"/>
+      <c r="C163" s="27"/>
     </row>
     <row r="164">
-      <c r="B164" s="22"/>
+      <c r="C164" s="27"/>
     </row>
     <row r="165">
-      <c r="B165" s="22"/>
+      <c r="C165" s="27"/>
     </row>
     <row r="166">
-      <c r="B166" s="22"/>
+      <c r="C166" s="27"/>
     </row>
     <row r="167">
-      <c r="B167" s="22"/>
+      <c r="C167" s="27"/>
     </row>
     <row r="168">
-      <c r="B168" s="22"/>
+      <c r="C168" s="27"/>
     </row>
     <row r="169">
-      <c r="B169" s="22"/>
+      <c r="C169" s="27"/>
     </row>
     <row r="170">
-      <c r="B170" s="22"/>
+      <c r="C170" s="27"/>
     </row>
     <row r="171">
-      <c r="B171" s="22"/>
+      <c r="C171" s="27"/>
     </row>
     <row r="172">
-      <c r="B172" s="22"/>
+      <c r="C172" s="27"/>
     </row>
     <row r="173">
-      <c r="B173" s="22"/>
+      <c r="C173" s="27"/>
     </row>
     <row r="174">
-      <c r="B174" s="22"/>
+      <c r="C174" s="27"/>
     </row>
     <row r="175">
-      <c r="B175" s="22"/>
+      <c r="C175" s="27"/>
     </row>
     <row r="176">
-      <c r="B176" s="22"/>
+      <c r="C176" s="27"/>
     </row>
     <row r="177">
-      <c r="B177" s="22"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178">
-      <c r="B178" s="22"/>
+      <c r="C178" s="27"/>
     </row>
     <row r="179">
-      <c r="B179" s="22"/>
+      <c r="C179" s="27"/>
     </row>
     <row r="180">
-      <c r="B180" s="22"/>
+      <c r="C180" s="27"/>
     </row>
     <row r="181">
-      <c r="B181" s="22"/>
+      <c r="C181" s="27"/>
     </row>
     <row r="182">
-      <c r="B182" s="22"/>
+      <c r="C182" s="27"/>
     </row>
     <row r="183">
-      <c r="B183" s="22"/>
+      <c r="C183" s="27"/>
     </row>
     <row r="184">
-      <c r="B184" s="22"/>
+      <c r="C184" s="27"/>
     </row>
     <row r="185">
-      <c r="B185" s="22"/>
+      <c r="C185" s="27"/>
     </row>
     <row r="186">
-      <c r="B186" s="22"/>
+      <c r="C186" s="27"/>
     </row>
     <row r="187">
-      <c r="B187" s="22"/>
+      <c r="C187" s="27"/>
     </row>
     <row r="188">
-      <c r="B188" s="22"/>
+      <c r="C188" s="27"/>
     </row>
     <row r="189">
-      <c r="B189" s="22"/>
+      <c r="C189" s="27"/>
     </row>
     <row r="190">
-      <c r="B190" s="22"/>
+      <c r="C190" s="27"/>
     </row>
     <row r="191">
-      <c r="B191" s="22"/>
+      <c r="C191" s="27"/>
     </row>
     <row r="192">
-      <c r="B192" s="22"/>
+      <c r="C192" s="27"/>
     </row>
     <row r="193">
-      <c r="B193" s="22"/>
+      <c r="C193" s="27"/>
     </row>
     <row r="194">
-      <c r="B194" s="22"/>
+      <c r="C194" s="27"/>
     </row>
     <row r="195">
-      <c r="B195" s="22"/>
+      <c r="C195" s="27"/>
     </row>
     <row r="196">
-      <c r="B196" s="22"/>
+      <c r="C196" s="27"/>
     </row>
     <row r="197">
-      <c r="B197" s="22"/>
+      <c r="C197" s="27"/>
     </row>
     <row r="198">
-      <c r="B198" s="22"/>
+      <c r="C198" s="27"/>
     </row>
     <row r="199">
-      <c r="B199" s="22"/>
+      <c r="C199" s="27"/>
     </row>
     <row r="200">
-      <c r="B200" s="22"/>
+      <c r="C200" s="27"/>
     </row>
     <row r="201">
-      <c r="B201" s="22"/>
+      <c r="C201" s="27"/>
     </row>
     <row r="202">
-      <c r="B202" s="22"/>
+      <c r="C202" s="27"/>
     </row>
     <row r="203">
-      <c r="B203" s="22"/>
+      <c r="C203" s="27"/>
     </row>
     <row r="204">
-      <c r="B204" s="22"/>
+      <c r="C204" s="27"/>
     </row>
     <row r="205">
-      <c r="B205" s="22"/>
+      <c r="C205" s="27"/>
     </row>
     <row r="206">
-      <c r="B206" s="22"/>
+      <c r="C206" s="27"/>
     </row>
     <row r="207">
-      <c r="B207" s="22"/>
+      <c r="C207" s="27"/>
     </row>
     <row r="208">
-      <c r="B208" s="22"/>
+      <c r="C208" s="27"/>
     </row>
     <row r="209">
-      <c r="B209" s="22"/>
+      <c r="C209" s="27"/>
     </row>
     <row r="210">
-      <c r="B210" s="22"/>
+      <c r="C210" s="27"/>
     </row>
     <row r="211">
-      <c r="B211" s="22"/>
+      <c r="C211" s="27"/>
     </row>
     <row r="212">
-      <c r="B212" s="22"/>
+      <c r="C212" s="27"/>
     </row>
     <row r="213">
-      <c r="B213" s="22"/>
+      <c r="C213" s="27"/>
     </row>
     <row r="214">
-      <c r="B214" s="22"/>
+      <c r="C214" s="27"/>
     </row>
     <row r="215">
-      <c r="B215" s="22"/>
+      <c r="C215" s="27"/>
     </row>
     <row r="216">
-      <c r="B216" s="22"/>
+      <c r="C216" s="27"/>
     </row>
     <row r="217">
-      <c r="B217" s="22"/>
+      <c r="C217" s="27"/>
     </row>
     <row r="218">
-      <c r="B218" s="22"/>
+      <c r="C218" s="27"/>
     </row>
     <row r="219">
-      <c r="B219" s="22"/>
+      <c r="C219" s="27"/>
     </row>
     <row r="220">
-      <c r="B220" s="22"/>
+      <c r="C220" s="27"/>
     </row>
     <row r="221">
-      <c r="B221" s="22"/>
+      <c r="C221" s="27"/>
     </row>
     <row r="222">
-      <c r="B222" s="22"/>
+      <c r="C222" s="27"/>
     </row>
     <row r="223">
-      <c r="B223" s="22"/>
+      <c r="C223" s="27"/>
     </row>
     <row r="224">
-      <c r="B224" s="22"/>
+      <c r="C224" s="27"/>
     </row>
     <row r="225">
-      <c r="B225" s="22"/>
+      <c r="C225" s="27"/>
     </row>
     <row r="226">
-      <c r="B226" s="22"/>
+      <c r="C226" s="27"/>
     </row>
     <row r="227">
-      <c r="B227" s="22"/>
+      <c r="C227" s="27"/>
     </row>
     <row r="228">
-      <c r="B228" s="22"/>
+      <c r="C228" s="27"/>
     </row>
     <row r="229">
-      <c r="B229" s="22"/>
+      <c r="C229" s="27"/>
     </row>
     <row r="230">
-      <c r="B230" s="22"/>
+      <c r="C230" s="27"/>
     </row>
     <row r="231">
-      <c r="B231" s="22"/>
+      <c r="C231" s="27"/>
     </row>
     <row r="232">
-      <c r="B232" s="22"/>
+      <c r="C232" s="27"/>
     </row>
     <row r="233">
-      <c r="B233" s="22"/>
+      <c r="C233" s="27"/>
     </row>
     <row r="234">
-      <c r="B234" s="22"/>
+      <c r="C234" s="27"/>
     </row>
     <row r="235">
-      <c r="B235" s="22"/>
+      <c r="C235" s="27"/>
     </row>
     <row r="236">
-      <c r="B236" s="22"/>
+      <c r="C236" s="27"/>
     </row>
     <row r="237">
-      <c r="B237" s="22"/>
+      <c r="C237" s="27"/>
     </row>
     <row r="238">
-      <c r="B238" s="22"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239">
-      <c r="B239" s="22"/>
+      <c r="C239" s="27"/>
     </row>
     <row r="240">
-      <c r="B240" s="22"/>
+      <c r="C240" s="27"/>
     </row>
     <row r="241">
-      <c r="B241" s="22"/>
+      <c r="C241" s="27"/>
     </row>
     <row r="242">
-      <c r="B242" s="22"/>
+      <c r="C242" s="27"/>
     </row>
     <row r="243">
-      <c r="B243" s="22"/>
+      <c r="C243" s="27"/>
     </row>
     <row r="244">
-      <c r="B244" s="22"/>
+      <c r="C244" s="27"/>
     </row>
     <row r="245">
-      <c r="B245" s="22"/>
+      <c r="C245" s="27"/>
     </row>
     <row r="246">
-      <c r="B246" s="22"/>
+      <c r="C246" s="27"/>
     </row>
     <row r="247">
-      <c r="B247" s="22"/>
+      <c r="C247" s="27"/>
     </row>
     <row r="248">
-      <c r="B248" s="22"/>
+      <c r="C248" s="27"/>
     </row>
     <row r="249">
-      <c r="B249" s="22"/>
+      <c r="C249" s="27"/>
     </row>
     <row r="250">
-      <c r="B250" s="22"/>
+      <c r="C250" s="27"/>
     </row>
     <row r="251">
-      <c r="B251" s="22"/>
+      <c r="C251" s="27"/>
     </row>
     <row r="252">
-      <c r="B252" s="22"/>
+      <c r="C252" s="27"/>
     </row>
     <row r="253">
-      <c r="B253" s="22"/>
+      <c r="C253" s="27"/>
     </row>
     <row r="254">
-      <c r="B254" s="22"/>
+      <c r="C254" s="27"/>
     </row>
     <row r="255">
-      <c r="B255" s="22"/>
+      <c r="C255" s="27"/>
     </row>
     <row r="256">
-      <c r="B256" s="22"/>
+      <c r="C256" s="27"/>
     </row>
     <row r="257">
-      <c r="B257" s="22"/>
+      <c r="C257" s="27"/>
     </row>
     <row r="258">
-      <c r="B258" s="22"/>
+      <c r="C258" s="27"/>
     </row>
     <row r="259">
-      <c r="B259" s="22"/>
+      <c r="C259" s="27"/>
     </row>
     <row r="260">
-      <c r="B260" s="22"/>
+      <c r="C260" s="27"/>
     </row>
     <row r="261">
-      <c r="B261" s="22"/>
+      <c r="C261" s="27"/>
     </row>
     <row r="262">
-      <c r="B262" s="22"/>
+      <c r="C262" s="27"/>
     </row>
     <row r="263">
-      <c r="B263" s="22"/>
+      <c r="C263" s="27"/>
     </row>
     <row r="264">
-      <c r="B264" s="22"/>
+      <c r="C264" s="27"/>
     </row>
     <row r="265">
-      <c r="B265" s="22"/>
+      <c r="C265" s="27"/>
     </row>
     <row r="266">
-      <c r="B266" s="22"/>
+      <c r="C266" s="27"/>
     </row>
     <row r="267">
-      <c r="B267" s="22"/>
+      <c r="C267" s="27"/>
     </row>
     <row r="268">
-      <c r="B268" s="22"/>
+      <c r="C268" s="27"/>
     </row>
     <row r="269">
-      <c r="B269" s="22"/>
+      <c r="C269" s="27"/>
     </row>
     <row r="270">
-      <c r="B270" s="22"/>
+      <c r="C270" s="27"/>
     </row>
     <row r="271">
-      <c r="B271" s="22"/>
+      <c r="C271" s="27"/>
     </row>
     <row r="272">
-      <c r="B272" s="22"/>
+      <c r="C272" s="27"/>
     </row>
     <row r="273">
-      <c r="B273" s="22"/>
+      <c r="C273" s="27"/>
     </row>
     <row r="274">
-      <c r="B274" s="22"/>
+      <c r="C274" s="27"/>
     </row>
     <row r="275">
-      <c r="B275" s="22"/>
+      <c r="C275" s="27"/>
     </row>
     <row r="276">
-      <c r="B276" s="22"/>
+      <c r="C276" s="27"/>
     </row>
     <row r="277">
-      <c r="B277" s="22"/>
+      <c r="C277" s="27"/>
     </row>
     <row r="278">
-      <c r="B278" s="22"/>
+      <c r="C278" s="27"/>
     </row>
     <row r="279">
-      <c r="B279" s="22"/>
+      <c r="C279" s="27"/>
     </row>
     <row r="280">
-      <c r="B280" s="22"/>
+      <c r="C280" s="27"/>
     </row>
     <row r="281">
-      <c r="B281" s="22"/>
+      <c r="C281" s="27"/>
     </row>
     <row r="282">
-      <c r="B282" s="22"/>
+      <c r="C282" s="27"/>
     </row>
     <row r="283">
-      <c r="B283" s="22"/>
+      <c r="C283" s="27"/>
     </row>
     <row r="284">
-      <c r="B284" s="22"/>
+      <c r="C284" s="27"/>
     </row>
     <row r="285">
-      <c r="B285" s="22"/>
+      <c r="C285" s="27"/>
     </row>
     <row r="286">
-      <c r="B286" s="22"/>
+      <c r="C286" s="27"/>
     </row>
     <row r="287">
-      <c r="B287" s="22"/>
+      <c r="C287" s="27"/>
     </row>
     <row r="288">
-      <c r="B288" s="22"/>
+      <c r="C288" s="27"/>
     </row>
     <row r="289">
-      <c r="B289" s="22"/>
+      <c r="C289" s="27"/>
     </row>
     <row r="290">
-      <c r="B290" s="22"/>
+      <c r="C290" s="27"/>
     </row>
     <row r="291">
-      <c r="B291" s="22"/>
+      <c r="C291" s="27"/>
     </row>
     <row r="292">
-      <c r="B292" s="22"/>
+      <c r="C292" s="27"/>
     </row>
     <row r="293">
-      <c r="B293" s="22"/>
+      <c r="C293" s="27"/>
     </row>
     <row r="294">
-      <c r="B294" s="22"/>
+      <c r="C294" s="27"/>
     </row>
     <row r="295">
-      <c r="B295" s="22"/>
+      <c r="C295" s="27"/>
     </row>
     <row r="296">
-      <c r="B296" s="22"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297">
-      <c r="B297" s="22"/>
+      <c r="C297" s="27"/>
     </row>
     <row r="298">
-      <c r="B298" s="22"/>
+      <c r="C298" s="27"/>
     </row>
     <row r="299">
-      <c r="B299" s="22"/>
+      <c r="C299" s="27"/>
     </row>
     <row r="300">
-      <c r="B300" s="22"/>
+      <c r="C300" s="27"/>
     </row>
     <row r="301">
-      <c r="B301" s="22"/>
+      <c r="C301" s="27"/>
     </row>
     <row r="302">
-      <c r="B302" s="22"/>
+      <c r="C302" s="27"/>
     </row>
     <row r="303">
-      <c r="B303" s="22"/>
+      <c r="C303" s="27"/>
     </row>
     <row r="304">
-      <c r="B304" s="22"/>
+      <c r="C304" s="27"/>
     </row>
     <row r="305">
-      <c r="B305" s="22"/>
+      <c r="C305" s="27"/>
     </row>
     <row r="306">
-      <c r="B306" s="22"/>
+      <c r="C306" s="27"/>
     </row>
     <row r="307">
-      <c r="B307" s="22"/>
+      <c r="C307" s="27"/>
     </row>
     <row r="308">
-      <c r="B308" s="22"/>
+      <c r="C308" s="27"/>
     </row>
     <row r="309">
-      <c r="B309" s="22"/>
+      <c r="C309" s="27"/>
     </row>
     <row r="310">
-      <c r="B310" s="22"/>
+      <c r="C310" s="27"/>
     </row>
     <row r="311">
-      <c r="B311" s="22"/>
+      <c r="C311" s="27"/>
     </row>
     <row r="312">
-      <c r="B312" s="22"/>
+      <c r="C312" s="27"/>
     </row>
     <row r="313">
-      <c r="B313" s="22"/>
+      <c r="C313" s="27"/>
     </row>
     <row r="314">
-      <c r="B314" s="22"/>
+      <c r="C314" s="27"/>
     </row>
     <row r="315">
-      <c r="B315" s="22"/>
+      <c r="C315" s="27"/>
     </row>
     <row r="316">
-      <c r="B316" s="22"/>
+      <c r="C316" s="27"/>
     </row>
     <row r="317">
-      <c r="B317" s="22"/>
+      <c r="C317" s="27"/>
     </row>
     <row r="318">
-      <c r="B318" s="22"/>
+      <c r="C318" s="27"/>
     </row>
     <row r="319">
-      <c r="B319" s="22"/>
+      <c r="C319" s="27"/>
     </row>
     <row r="320">
-      <c r="B320" s="22"/>
+      <c r="C320" s="27"/>
     </row>
     <row r="321">
-      <c r="B321" s="22"/>
+      <c r="C321" s="27"/>
     </row>
     <row r="322">
-      <c r="B322" s="22"/>
+      <c r="C322" s="27"/>
     </row>
     <row r="323">
-      <c r="B323" s="22"/>
+      <c r="C323" s="27"/>
     </row>
     <row r="324">
-      <c r="B324" s="22"/>
+      <c r="C324" s="27"/>
     </row>
     <row r="325">
-      <c r="B325" s="22"/>
+      <c r="C325" s="27"/>
     </row>
     <row r="326">
-      <c r="B326" s="22"/>
+      <c r="C326" s="27"/>
     </row>
     <row r="327">
-      <c r="B327" s="22"/>
+      <c r="C327" s="27"/>
     </row>
     <row r="328">
-      <c r="B328" s="22"/>
+      <c r="C328" s="27"/>
     </row>
     <row r="329">
-      <c r="B329" s="22"/>
+      <c r="C329" s="27"/>
     </row>
     <row r="330">
-      <c r="B330" s="22"/>
+      <c r="C330" s="27"/>
     </row>
     <row r="331">
-      <c r="B331" s="22"/>
+      <c r="C331" s="27"/>
     </row>
     <row r="332">
-      <c r="B332" s="22"/>
+      <c r="C332" s="27"/>
     </row>
     <row r="333">
-      <c r="B333" s="22"/>
+      <c r="C333" s="27"/>
     </row>
     <row r="334">
-      <c r="B334" s="22"/>
+      <c r="C334" s="27"/>
     </row>
     <row r="335">
-      <c r="B335" s="22"/>
+      <c r="C335" s="27"/>
     </row>
     <row r="336">
-      <c r="B336" s="22"/>
+      <c r="C336" s="27"/>
     </row>
     <row r="337">
-      <c r="B337" s="22"/>
+      <c r="C337" s="27"/>
     </row>
     <row r="338">
-      <c r="B338" s="22"/>
+      <c r="C338" s="27"/>
     </row>
     <row r="339">
-      <c r="B339" s="22"/>
+      <c r="C339" s="27"/>
     </row>
     <row r="340">
-      <c r="B340" s="22"/>
+      <c r="C340" s="27"/>
     </row>
     <row r="341">
-      <c r="B341" s="22"/>
+      <c r="C341" s="27"/>
     </row>
     <row r="342">
-      <c r="B342" s="22"/>
+      <c r="C342" s="27"/>
     </row>
     <row r="343">
-      <c r="B343" s="22"/>
+      <c r="C343" s="27"/>
     </row>
     <row r="344">
-      <c r="B344" s="22"/>
+      <c r="C344" s="27"/>
     </row>
     <row r="345">
-      <c r="B345" s="22"/>
+      <c r="C345" s="27"/>
     </row>
     <row r="346">
-      <c r="B346" s="22"/>
+      <c r="C346" s="27"/>
     </row>
     <row r="347">
-      <c r="B347" s="22"/>
+      <c r="C347" s="27"/>
     </row>
     <row r="348">
-      <c r="B348" s="22"/>
+      <c r="C348" s="27"/>
     </row>
     <row r="349">
-      <c r="B349" s="22"/>
+      <c r="C349" s="27"/>
     </row>
     <row r="350">
-      <c r="B350" s="22"/>
+      <c r="C350" s="27"/>
     </row>
     <row r="351">
-      <c r="B351" s="22"/>
+      <c r="C351" s="27"/>
     </row>
     <row r="352">
-      <c r="B352" s="22"/>
+      <c r="C352" s="27"/>
     </row>
     <row r="353">
-      <c r="B353" s="22"/>
+      <c r="C353" s="27"/>
     </row>
     <row r="354">
-      <c r="B354" s="22"/>
+      <c r="C354" s="27"/>
     </row>
     <row r="355">
-      <c r="B355" s="22"/>
+      <c r="C355" s="27"/>
     </row>
     <row r="356">
-      <c r="B356" s="22"/>
+      <c r="C356" s="27"/>
     </row>
     <row r="357">
-      <c r="B357" s="22"/>
+      <c r="C357" s="27"/>
     </row>
     <row r="358">
-      <c r="B358" s="22"/>
+      <c r="C358" s="27"/>
     </row>
     <row r="359">
-      <c r="B359" s="22"/>
+      <c r="C359" s="27"/>
     </row>
     <row r="360">
-      <c r="B360" s="22"/>
+      <c r="C360" s="27"/>
     </row>
     <row r="361">
-      <c r="B361" s="22"/>
+      <c r="C361" s="27"/>
     </row>
     <row r="362">
-      <c r="B362" s="22"/>
+      <c r="C362" s="27"/>
     </row>
     <row r="363">
-      <c r="B363" s="22"/>
+      <c r="C363" s="27"/>
     </row>
     <row r="364">
-      <c r="B364" s="22"/>
+      <c r="C364" s="27"/>
     </row>
     <row r="365">
-      <c r="B365" s="22"/>
+      <c r="C365" s="27"/>
     </row>
     <row r="366">
-      <c r="B366" s="22"/>
+      <c r="C366" s="27"/>
     </row>
     <row r="367">
-      <c r="B367" s="22"/>
+      <c r="C367" s="27"/>
     </row>
     <row r="368">
-      <c r="B368" s="22"/>
+      <c r="C368" s="27"/>
     </row>
     <row r="369">
-      <c r="B369" s="22"/>
+      <c r="C369" s="27"/>
     </row>
     <row r="370">
-      <c r="B370" s="22"/>
+      <c r="C370" s="27"/>
     </row>
     <row r="371">
-      <c r="B371" s="22"/>
+      <c r="C371" s="27"/>
     </row>
     <row r="372">
-      <c r="B372" s="22"/>
+      <c r="C372" s="27"/>
     </row>
     <row r="373">
-      <c r="B373" s="22"/>
+      <c r="C373" s="27"/>
     </row>
     <row r="374">
-      <c r="B374" s="22"/>
+      <c r="C374" s="27"/>
     </row>
     <row r="375">
-      <c r="B375" s="22"/>
+      <c r="C375" s="27"/>
     </row>
     <row r="376">
-      <c r="B376" s="22"/>
+      <c r="C376" s="27"/>
     </row>
     <row r="377">
-      <c r="B377" s="22"/>
+      <c r="C377" s="27"/>
     </row>
     <row r="378">
-      <c r="B378" s="22"/>
+      <c r="C378" s="27"/>
     </row>
     <row r="379">
-      <c r="B379" s="22"/>
+      <c r="C379" s="27"/>
     </row>
     <row r="380">
-      <c r="B380" s="22"/>
+      <c r="C380" s="27"/>
     </row>
     <row r="381">
-      <c r="B381" s="22"/>
+      <c r="C381" s="27"/>
     </row>
     <row r="382">
-      <c r="B382" s="22"/>
+      <c r="C382" s="27"/>
     </row>
     <row r="383">
-      <c r="B383" s="22"/>
+      <c r="C383" s="27"/>
     </row>
     <row r="384">
-      <c r="B384" s="22"/>
+      <c r="C384" s="27"/>
     </row>
     <row r="385">
-      <c r="B385" s="22"/>
+      <c r="C385" s="27"/>
     </row>
     <row r="386">
-      <c r="B386" s="22"/>
+      <c r="C386" s="27"/>
     </row>
     <row r="387">
-      <c r="B387" s="22"/>
+      <c r="C387" s="27"/>
     </row>
     <row r="388">
-      <c r="B388" s="22"/>
+      <c r="C388" s="27"/>
     </row>
     <row r="389">
-      <c r="B389" s="22"/>
+      <c r="C389" s="27"/>
     </row>
     <row r="390">
-      <c r="B390" s="22"/>
+      <c r="C390" s="27"/>
     </row>
     <row r="391">
-      <c r="B391" s="22"/>
+      <c r="C391" s="27"/>
     </row>
     <row r="392">
-      <c r="B392" s="22"/>
+      <c r="C392" s="27"/>
     </row>
     <row r="393">
-      <c r="B393" s="22"/>
+      <c r="C393" s="27"/>
     </row>
     <row r="394">
-      <c r="B394" s="22"/>
+      <c r="C394" s="27"/>
     </row>
     <row r="395">
-      <c r="B395" s="22"/>
+      <c r="C395" s="27"/>
     </row>
     <row r="396">
-      <c r="B396" s="22"/>
+      <c r="C396" s="27"/>
     </row>
     <row r="397">
-      <c r="B397" s="22"/>
+      <c r="C397" s="27"/>
     </row>
     <row r="398">
-      <c r="B398" s="22"/>
+      <c r="C398" s="27"/>
     </row>
     <row r="399">
-      <c r="B399" s="22"/>
+      <c r="C399" s="27"/>
     </row>
     <row r="400">
-      <c r="B400" s="22"/>
+      <c r="C400" s="27"/>
     </row>
     <row r="401">
-      <c r="B401" s="22"/>
+      <c r="C401" s="27"/>
     </row>
     <row r="402">
-      <c r="B402" s="22"/>
+      <c r="C402" s="27"/>
     </row>
     <row r="403">
-      <c r="B403" s="22"/>
+      <c r="C403" s="27"/>
     </row>
     <row r="404">
-      <c r="B404" s="22"/>
+      <c r="C404" s="27"/>
     </row>
     <row r="405">
-      <c r="B405" s="22"/>
+      <c r="C405" s="27"/>
     </row>
     <row r="406">
-      <c r="B406" s="22"/>
+      <c r="C406" s="27"/>
     </row>
     <row r="407">
-      <c r="B407" s="22"/>
+      <c r="C407" s="27"/>
     </row>
     <row r="408">
-      <c r="B408" s="22"/>
+      <c r="C408" s="27"/>
     </row>
     <row r="409">
-      <c r="B409" s="22"/>
+      <c r="C409" s="27"/>
     </row>
     <row r="410">
-      <c r="B410" s="22"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411">
-      <c r="B411" s="22"/>
+      <c r="C411" s="27"/>
     </row>
     <row r="412">
-      <c r="B412" s="22"/>
+      <c r="C412" s="27"/>
     </row>
     <row r="413">
-      <c r="B413" s="22"/>
+      <c r="C413" s="27"/>
     </row>
     <row r="414">
-      <c r="B414" s="22"/>
+      <c r="C414" s="27"/>
     </row>
     <row r="415">
-      <c r="B415" s="22"/>
+      <c r="C415" s="27"/>
     </row>
     <row r="416">
-      <c r="B416" s="22"/>
+      <c r="C416" s="27"/>
     </row>
     <row r="417">
-      <c r="B417" s="22"/>
+      <c r="C417" s="27"/>
     </row>
     <row r="418">
-      <c r="B418" s="22"/>
+      <c r="C418" s="27"/>
     </row>
     <row r="419">
-      <c r="B419" s="22"/>
+      <c r="C419" s="27"/>
     </row>
     <row r="420">
-      <c r="B420" s="22"/>
+      <c r="C420" s="27"/>
     </row>
     <row r="421">
-      <c r="B421" s="22"/>
+      <c r="C421" s="27"/>
     </row>
     <row r="422">
-      <c r="B422" s="22"/>
+      <c r="C422" s="27"/>
     </row>
     <row r="423">
-      <c r="B423" s="22"/>
+      <c r="C423" s="27"/>
     </row>
     <row r="424">
-      <c r="B424" s="22"/>
+      <c r="C424" s="27"/>
     </row>
     <row r="425">
-      <c r="B425" s="22"/>
+      <c r="C425" s="27"/>
     </row>
     <row r="426">
-      <c r="B426" s="22"/>
+      <c r="C426" s="27"/>
     </row>
     <row r="427">
-      <c r="B427" s="22"/>
+      <c r="C427" s="27"/>
     </row>
     <row r="428">
-      <c r="B428" s="22"/>
+      <c r="C428" s="27"/>
     </row>
     <row r="429">
-      <c r="B429" s="22"/>
+      <c r="C429" s="27"/>
     </row>
     <row r="430">
-      <c r="B430" s="22"/>
+      <c r="C430" s="27"/>
     </row>
     <row r="431">
-      <c r="B431" s="22"/>
+      <c r="C431" s="27"/>
     </row>
     <row r="432">
-      <c r="B432" s="22"/>
+      <c r="C432" s="27"/>
     </row>
     <row r="433">
-      <c r="B433" s="22"/>
+      <c r="C433" s="27"/>
     </row>
     <row r="434">
-      <c r="B434" s="22"/>
+      <c r="C434" s="27"/>
     </row>
     <row r="435">
-      <c r="B435" s="22"/>
+      <c r="C435" s="27"/>
     </row>
     <row r="436">
-      <c r="B436" s="22"/>
+      <c r="C436" s="27"/>
     </row>
     <row r="437">
-      <c r="B437" s="22"/>
+      <c r="C437" s="27"/>
     </row>
     <row r="438">
-      <c r="B438" s="22"/>
+      <c r="C438" s="27"/>
     </row>
     <row r="439">
-      <c r="B439" s="22"/>
+      <c r="C439" s="27"/>
     </row>
     <row r="440">
-      <c r="B440" s="22"/>
+      <c r="C440" s="27"/>
     </row>
     <row r="441">
-      <c r="B441" s="22"/>
+      <c r="C441" s="27"/>
     </row>
     <row r="442">
-      <c r="B442" s="22"/>
+      <c r="C442" s="27"/>
     </row>
     <row r="443">
-      <c r="B443" s="22"/>
+      <c r="C443" s="27"/>
     </row>
     <row r="444">
-      <c r="B444" s="22"/>
+      <c r="C444" s="27"/>
     </row>
     <row r="445">
-      <c r="B445" s="22"/>
+      <c r="C445" s="27"/>
     </row>
     <row r="446">
-      <c r="B446" s="22"/>
+      <c r="C446" s="27"/>
     </row>
     <row r="447">
-      <c r="B447" s="22"/>
+      <c r="C447" s="27"/>
     </row>
     <row r="448">
-      <c r="B448" s="22"/>
+      <c r="C448" s="27"/>
     </row>
     <row r="449">
-      <c r="B449" s="22"/>
+      <c r="C449" s="27"/>
     </row>
     <row r="450">
-      <c r="B450" s="22"/>
+      <c r="C450" s="27"/>
     </row>
     <row r="451">
-      <c r="B451" s="22"/>
+      <c r="C451" s="27"/>
     </row>
     <row r="452">
-      <c r="B452" s="22"/>
+      <c r="C452" s="27"/>
     </row>
     <row r="453">
-      <c r="B453" s="22"/>
+      <c r="C453" s="27"/>
     </row>
     <row r="454">
-      <c r="B454" s="22"/>
+      <c r="C454" s="27"/>
     </row>
     <row r="455">
-      <c r="B455" s="22"/>
+      <c r="C455" s="27"/>
     </row>
     <row r="456">
-      <c r="B456" s="22"/>
+      <c r="C456" s="27"/>
     </row>
     <row r="457">
-      <c r="B457" s="22"/>
+      <c r="C457" s="27"/>
     </row>
     <row r="458">
-      <c r="B458" s="22"/>
+      <c r="C458" s="27"/>
     </row>
     <row r="459">
-      <c r="B459" s="22"/>
+      <c r="C459" s="27"/>
     </row>
     <row r="460">
-      <c r="B460" s="22"/>
+      <c r="C460" s="27"/>
     </row>
     <row r="461">
-      <c r="B461" s="22"/>
+      <c r="C461" s="27"/>
     </row>
     <row r="462">
-      <c r="B462" s="22"/>
+      <c r="C462" s="27"/>
     </row>
     <row r="463">
-      <c r="B463" s="22"/>
+      <c r="C463" s="27"/>
     </row>
     <row r="464">
-      <c r="B464" s="22"/>
+      <c r="C464" s="27"/>
     </row>
     <row r="465">
-      <c r="B465" s="22"/>
+      <c r="C465" s="27"/>
     </row>
     <row r="466">
-      <c r="B466" s="22"/>
+      <c r="C466" s="27"/>
     </row>
     <row r="467">
-      <c r="B467" s="22"/>
+      <c r="C467" s="27"/>
     </row>
     <row r="468">
-      <c r="B468" s="22"/>
+      <c r="C468" s="27"/>
     </row>
     <row r="469">
-      <c r="B469" s="22"/>
+      <c r="C469" s="27"/>
     </row>
     <row r="470">
-      <c r="B470" s="22"/>
+      <c r="C470" s="27"/>
     </row>
     <row r="471">
-      <c r="B471" s="22"/>
+      <c r="C471" s="27"/>
     </row>
     <row r="472">
-      <c r="B472" s="22"/>
+      <c r="C472" s="27"/>
     </row>
     <row r="473">
-      <c r="B473" s="22"/>
+      <c r="C473" s="27"/>
     </row>
     <row r="474">
-      <c r="B474" s="22"/>
+      <c r="C474" s="27"/>
     </row>
     <row r="475">
-      <c r="B475" s="22"/>
+      <c r="C475" s="27"/>
     </row>
     <row r="476">
-      <c r="B476" s="22"/>
+      <c r="C476" s="27"/>
     </row>
     <row r="477">
-      <c r="B477" s="22"/>
+      <c r="C477" s="27"/>
     </row>
     <row r="478">
-      <c r="B478" s="22"/>
+      <c r="C478" s="27"/>
     </row>
     <row r="479">
-      <c r="B479" s="22"/>
+      <c r="C479" s="27"/>
     </row>
     <row r="480">
-      <c r="B480" s="22"/>
+      <c r="C480" s="27"/>
     </row>
     <row r="481">
-      <c r="B481" s="22"/>
+      <c r="C481" s="27"/>
     </row>
     <row r="482">
-      <c r="B482" s="22"/>
+      <c r="C482" s="27"/>
     </row>
     <row r="483">
-      <c r="B483" s="22"/>
+      <c r="C483" s="27"/>
     </row>
     <row r="484">
-      <c r="B484" s="22"/>
+      <c r="C484" s="27"/>
     </row>
     <row r="485">
-      <c r="B485" s="22"/>
+      <c r="C485" s="27"/>
     </row>
     <row r="486">
-      <c r="B486" s="22"/>
+      <c r="C486" s="27"/>
     </row>
     <row r="487">
-      <c r="B487" s="22"/>
+      <c r="C487" s="27"/>
     </row>
     <row r="488">
-      <c r="B488" s="22"/>
+      <c r="C488" s="27"/>
     </row>
     <row r="489">
-      <c r="B489" s="22"/>
+      <c r="C489" s="27"/>
     </row>
     <row r="490">
-      <c r="B490" s="22"/>
+      <c r="C490" s="27"/>
     </row>
     <row r="491">
-      <c r="B491" s="22"/>
+      <c r="C491" s="27"/>
     </row>
     <row r="492">
-      <c r="B492" s="22"/>
+      <c r="C492" s="27"/>
     </row>
     <row r="493">
-      <c r="B493" s="22"/>
+      <c r="C493" s="27"/>
     </row>
     <row r="494">
-      <c r="B494" s="22"/>
+      <c r="C494" s="27"/>
     </row>
     <row r="495">
-      <c r="B495" s="22"/>
+      <c r="C495" s="27"/>
     </row>
     <row r="496">
-      <c r="B496" s="22"/>
+      <c r="C496" s="27"/>
     </row>
     <row r="497">
-      <c r="B497" s="22"/>
+      <c r="C497" s="27"/>
     </row>
     <row r="498">
-      <c r="B498" s="22"/>
+      <c r="C498" s="27"/>
     </row>
     <row r="499">
-      <c r="B499" s="22"/>
+      <c r="C499" s="27"/>
     </row>
     <row r="500">
-      <c r="B500" s="22"/>
+      <c r="C500" s="27"/>
     </row>
     <row r="501">
-      <c r="B501" s="22"/>
+      <c r="C501" s="27"/>
     </row>
     <row r="502">
-      <c r="B502" s="22"/>
+      <c r="C502" s="27"/>
     </row>
     <row r="503">
-      <c r="B503" s="22"/>
+      <c r="C503" s="27"/>
     </row>
     <row r="504">
-      <c r="B504" s="22"/>
+      <c r="C504" s="27"/>
     </row>
     <row r="505">
-      <c r="B505" s="22"/>
+      <c r="C505" s="27"/>
     </row>
     <row r="506">
-      <c r="B506" s="22"/>
+      <c r="C506" s="27"/>
     </row>
     <row r="507">
-      <c r="B507" s="22"/>
+      <c r="C507" s="27"/>
     </row>
     <row r="508">
-      <c r="B508" s="22"/>
+      <c r="C508" s="27"/>
     </row>
     <row r="509">
-      <c r="B509" s="22"/>
+      <c r="C509" s="27"/>
     </row>
     <row r="510">
-      <c r="B510" s="22"/>
+      <c r="C510" s="27"/>
     </row>
     <row r="511">
-      <c r="B511" s="22"/>
+      <c r="C511" s="27"/>
     </row>
     <row r="512">
-      <c r="B512" s="22"/>
+      <c r="C512" s="27"/>
     </row>
     <row r="513">
-      <c r="B513" s="22"/>
+      <c r="C513" s="27"/>
     </row>
     <row r="514">
-      <c r="B514" s="22"/>
+      <c r="C514" s="27"/>
     </row>
     <row r="515">
-      <c r="B515" s="22"/>
+      <c r="C515" s="27"/>
     </row>
     <row r="516">
-      <c r="B516" s="22"/>
+      <c r="C516" s="27"/>
     </row>
     <row r="517">
-      <c r="B517" s="22"/>
+      <c r="C517" s="27"/>
     </row>
     <row r="518">
-      <c r="B518" s="22"/>
+      <c r="C518" s="27"/>
     </row>
     <row r="519">
-      <c r="B519" s="22"/>
+      <c r="C519" s="27"/>
     </row>
     <row r="520">
-      <c r="B520" s="22"/>
+      <c r="C520" s="27"/>
     </row>
     <row r="521">
-      <c r="B521" s="22"/>
+      <c r="C521" s="27"/>
     </row>
     <row r="522">
-      <c r="B522" s="22"/>
+      <c r="C522" s="27"/>
     </row>
     <row r="523">
-      <c r="B523" s="22"/>
+      <c r="C523" s="27"/>
     </row>
     <row r="524">
-      <c r="B524" s="22"/>
+      <c r="C524" s="27"/>
     </row>
     <row r="525">
-      <c r="B525" s="22"/>
+      <c r="C525" s="27"/>
     </row>
     <row r="526">
-      <c r="B526" s="22"/>
+      <c r="C526" s="27"/>
     </row>
     <row r="527">
-      <c r="B527" s="22"/>
+      <c r="C527" s="27"/>
     </row>
     <row r="528">
-      <c r="B528" s="22"/>
+      <c r="C528" s="27"/>
     </row>
     <row r="529">
-      <c r="B529" s="22"/>
+      <c r="C529" s="27"/>
     </row>
     <row r="530">
-      <c r="B530" s="22"/>
+      <c r="C530" s="27"/>
     </row>
     <row r="531">
-      <c r="B531" s="22"/>
+      <c r="C531" s="27"/>
     </row>
     <row r="532">
-      <c r="B532" s="22"/>
+      <c r="C532" s="27"/>
     </row>
     <row r="533">
-      <c r="B533" s="22"/>
+      <c r="C533" s="27"/>
     </row>
     <row r="534">
-      <c r="B534" s="22"/>
+      <c r="C534" s="27"/>
     </row>
     <row r="535">
-      <c r="B535" s="22"/>
+      <c r="C535" s="27"/>
     </row>
     <row r="536">
-      <c r="B536" s="22"/>
+      <c r="C536" s="27"/>
     </row>
     <row r="537">
-      <c r="B537" s="22"/>
+      <c r="C537" s="27"/>
     </row>
     <row r="538">
-      <c r="B538" s="22"/>
+      <c r="C538" s="27"/>
     </row>
     <row r="539">
-      <c r="B539" s="22"/>
+      <c r="C539" s="27"/>
     </row>
     <row r="540">
-      <c r="B540" s="22"/>
+      <c r="C540" s="27"/>
     </row>
     <row r="541">
-      <c r="B541" s="22"/>
+      <c r="C541" s="27"/>
     </row>
     <row r="542">
-      <c r="B542" s="22"/>
+      <c r="C542" s="27"/>
     </row>
     <row r="543">
-      <c r="B543" s="22"/>
+      <c r="C543" s="27"/>
     </row>
     <row r="544">
-      <c r="B544" s="22"/>
+      <c r="C544" s="27"/>
     </row>
     <row r="545">
-      <c r="B545" s="22"/>
+      <c r="C545" s="27"/>
     </row>
     <row r="546">
-      <c r="B546" s="22"/>
+      <c r="C546" s="27"/>
     </row>
     <row r="547">
-      <c r="B547" s="22"/>
+      <c r="C547" s="27"/>
     </row>
     <row r="548">
-      <c r="B548" s="22"/>
+      <c r="C548" s="27"/>
     </row>
     <row r="549">
-      <c r="B549" s="22"/>
+      <c r="C549" s="27"/>
     </row>
     <row r="550">
-      <c r="B550" s="22"/>
+      <c r="C550" s="27"/>
     </row>
     <row r="551">
-      <c r="B551" s="22"/>
+      <c r="C551" s="27"/>
     </row>
     <row r="552">
-      <c r="B552" s="22"/>
+      <c r="C552" s="27"/>
     </row>
     <row r="553">
-      <c r="B553" s="22"/>
+      <c r="C553" s="27"/>
     </row>
     <row r="554">
-      <c r="B554" s="22"/>
+      <c r="C554" s="27"/>
     </row>
     <row r="555">
-      <c r="B555" s="22"/>
+      <c r="C555" s="27"/>
     </row>
     <row r="556">
-      <c r="B556" s="22"/>
+      <c r="C556" s="27"/>
     </row>
     <row r="557">
-      <c r="B557" s="22"/>
+      <c r="C557" s="27"/>
     </row>
     <row r="558">
-      <c r="B558" s="22"/>
+      <c r="C558" s="27"/>
     </row>
     <row r="559">
-      <c r="B559" s="22"/>
+      <c r="C559" s="27"/>
     </row>
     <row r="560">
-      <c r="B560" s="22"/>
+      <c r="C560" s="27"/>
     </row>
     <row r="561">
-      <c r="B561" s="22"/>
+      <c r="C561" s="27"/>
     </row>
     <row r="562">
-      <c r="B562" s="22"/>
+      <c r="C562" s="27"/>
     </row>
     <row r="563">
-      <c r="B563" s="22"/>
+      <c r="C563" s="27"/>
     </row>
     <row r="564">
-      <c r="B564" s="22"/>
+      <c r="C564" s="27"/>
     </row>
     <row r="565">
-      <c r="B565" s="22"/>
+      <c r="C565" s="27"/>
     </row>
     <row r="566">
-      <c r="B566" s="22"/>
+      <c r="C566" s="27"/>
     </row>
     <row r="567">
-      <c r="B567" s="22"/>
+      <c r="C567" s="27"/>
     </row>
     <row r="568">
-      <c r="B568" s="22"/>
+      <c r="C568" s="27"/>
     </row>
     <row r="569">
-      <c r="B569" s="22"/>
+      <c r="C569" s="27"/>
     </row>
     <row r="570">
-      <c r="B570" s="22"/>
+      <c r="C570" s="27"/>
     </row>
     <row r="571">
-      <c r="B571" s="22"/>
+      <c r="C571" s="27"/>
     </row>
     <row r="572">
-      <c r="B572" s="22"/>
+      <c r="C572" s="27"/>
     </row>
     <row r="573">
-      <c r="B573" s="22"/>
+      <c r="C573" s="27"/>
     </row>
     <row r="574">
-      <c r="B574" s="22"/>
+      <c r="C574" s="27"/>
     </row>
     <row r="575">
-      <c r="B575" s="22"/>
+      <c r="C575" s="27"/>
     </row>
     <row r="576">
-      <c r="B576" s="22"/>
+      <c r="C576" s="27"/>
     </row>
     <row r="577">
-      <c r="B577" s="22"/>
+      <c r="C577" s="27"/>
     </row>
     <row r="578">
-      <c r="B578" s="22"/>
+      <c r="C578" s="27"/>
     </row>
     <row r="579">
-      <c r="B579" s="22"/>
+      <c r="C579" s="27"/>
     </row>
     <row r="580">
-      <c r="B580" s="22"/>
+      <c r="C580" s="27"/>
     </row>
     <row r="581">
-      <c r="B581" s="22"/>
+      <c r="C581" s="27"/>
     </row>
     <row r="582">
-      <c r="B582" s="22"/>
+      <c r="C582" s="27"/>
     </row>
     <row r="583">
-      <c r="B583" s="22"/>
+      <c r="C583" s="27"/>
     </row>
     <row r="584">
-      <c r="B584" s="22"/>
+      <c r="C584" s="27"/>
     </row>
     <row r="585">
-      <c r="B585" s="22"/>
+      <c r="C585" s="27"/>
     </row>
     <row r="586">
-      <c r="B586" s="22"/>
+      <c r="C586" s="27"/>
     </row>
     <row r="587">
-      <c r="B587" s="22"/>
+      <c r="C587" s="27"/>
     </row>
     <row r="588">
-      <c r="B588" s="22"/>
+      <c r="C588" s="27"/>
     </row>
     <row r="589">
-      <c r="B589" s="22"/>
+      <c r="C589" s="27"/>
     </row>
     <row r="590">
-      <c r="B590" s="22"/>
+      <c r="C590" s="27"/>
     </row>
     <row r="591">
-      <c r="B591" s="22"/>
+      <c r="C591" s="27"/>
     </row>
     <row r="592">
-      <c r="B592" s="22"/>
+      <c r="C592" s="27"/>
     </row>
     <row r="593">
-      <c r="B593" s="22"/>
+      <c r="C593" s="27"/>
     </row>
     <row r="594">
-      <c r="B594" s="22"/>
+      <c r="C594" s="27"/>
     </row>
     <row r="595">
-      <c r="B595" s="22"/>
+      <c r="C595" s="27"/>
     </row>
     <row r="596">
-      <c r="B596" s="22"/>
+      <c r="C596" s="27"/>
     </row>
     <row r="597">
-      <c r="B597" s="22"/>
+      <c r="C597" s="27"/>
     </row>
     <row r="598">
-      <c r="B598" s="22"/>
+      <c r="C598" s="27"/>
     </row>
     <row r="599">
-      <c r="B599" s="22"/>
+      <c r="C599" s="27"/>
     </row>
     <row r="600">
-      <c r="B600" s="22"/>
+      <c r="C600" s="27"/>
     </row>
     <row r="601">
-      <c r="B601" s="22"/>
+      <c r="C601" s="27"/>
     </row>
     <row r="602">
-      <c r="B602" s="22"/>
+      <c r="C602" s="27"/>
     </row>
     <row r="603">
-      <c r="B603" s="22"/>
+      <c r="C603" s="27"/>
     </row>
     <row r="604">
-      <c r="B604" s="22"/>
+      <c r="C604" s="27"/>
     </row>
     <row r="605">
-      <c r="B605" s="22"/>
+      <c r="C605" s="27"/>
     </row>
     <row r="606">
-      <c r="B606" s="22"/>
+      <c r="C606" s="27"/>
     </row>
     <row r="607">
-      <c r="B607" s="22"/>
+      <c r="C607" s="27"/>
     </row>
     <row r="608">
-      <c r="B608" s="22"/>
+      <c r="C608" s="27"/>
     </row>
     <row r="609">
-      <c r="B609" s="22"/>
+      <c r="C609" s="27"/>
     </row>
     <row r="610">
-      <c r="B610" s="22"/>
+      <c r="C610" s="27"/>
     </row>
     <row r="611">
-      <c r="B611" s="22"/>
+      <c r="C611" s="27"/>
     </row>
     <row r="612">
-      <c r="B612" s="22"/>
+      <c r="C612" s="27"/>
     </row>
     <row r="613">
-      <c r="B613" s="22"/>
+      <c r="C613" s="27"/>
     </row>
     <row r="614">
-      <c r="B614" s="22"/>
+      <c r="C614" s="27"/>
     </row>
     <row r="615">
-      <c r="B615" s="22"/>
+      <c r="C615" s="27"/>
     </row>
     <row r="616">
-      <c r="B616" s="22"/>
+      <c r="C616" s="27"/>
     </row>
     <row r="617">
-      <c r="B617" s="22"/>
+      <c r="C617" s="27"/>
     </row>
     <row r="618">
-      <c r="B618" s="22"/>
+      <c r="C618" s="27"/>
     </row>
     <row r="619">
-      <c r="B619" s="22"/>
+      <c r="C619" s="27"/>
     </row>
     <row r="620">
-      <c r="B620" s="22"/>
+      <c r="C620" s="27"/>
     </row>
     <row r="621">
-      <c r="B621" s="22"/>
+      <c r="C621" s="27"/>
     </row>
     <row r="622">
-      <c r="B622" s="22"/>
+      <c r="C622" s="27"/>
     </row>
     <row r="623">
-      <c r="B623" s="22"/>
+      <c r="C623" s="27"/>
     </row>
     <row r="624">
-      <c r="B624" s="22"/>
+      <c r="C624" s="27"/>
     </row>
     <row r="625">
-      <c r="B625" s="22"/>
+      <c r="C625" s="27"/>
     </row>
     <row r="626">
-      <c r="B626" s="22"/>
+      <c r="C626" s="27"/>
     </row>
     <row r="627">
-      <c r="B627" s="22"/>
+      <c r="C627" s="27"/>
     </row>
     <row r="628">
-      <c r="B628" s="22"/>
+      <c r="C628" s="27"/>
     </row>
     <row r="629">
-      <c r="B629" s="22"/>
+      <c r="C629" s="27"/>
     </row>
     <row r="630">
-      <c r="B630" s="22"/>
+      <c r="C630" s="27"/>
     </row>
     <row r="631">
-      <c r="B631" s="22"/>
+      <c r="C631" s="27"/>
     </row>
     <row r="632">
-      <c r="B632" s="22"/>
+      <c r="C632" s="27"/>
     </row>
     <row r="633">
-      <c r="B633" s="22"/>
+      <c r="C633" s="27"/>
     </row>
     <row r="634">
-      <c r="B634" s="22"/>
+      <c r="C634" s="27"/>
     </row>
     <row r="635">
-      <c r="B635" s="22"/>
+      <c r="C635" s="27"/>
     </row>
     <row r="636">
-      <c r="B636" s="22"/>
+      <c r="C636" s="27"/>
     </row>
     <row r="637">
-      <c r="B637" s="22"/>
+      <c r="C637" s="27"/>
     </row>
     <row r="638">
-      <c r="B638" s="22"/>
+      <c r="C638" s="27"/>
     </row>
     <row r="639">
-      <c r="B639" s="22"/>
+      <c r="C639" s="27"/>
     </row>
     <row r="640">
-      <c r="B640" s="22"/>
+      <c r="C640" s="27"/>
     </row>
     <row r="641">
-      <c r="B641" s="22"/>
+      <c r="C641" s="27"/>
     </row>
     <row r="642">
-      <c r="B642" s="22"/>
+      <c r="C642" s="27"/>
     </row>
     <row r="643">
-      <c r="B643" s="22"/>
+      <c r="C643" s="27"/>
     </row>
     <row r="644">
-      <c r="B644" s="22"/>
+      <c r="C644" s="27"/>
     </row>
     <row r="645">
-      <c r="B645" s="22"/>
+      <c r="C645" s="27"/>
     </row>
     <row r="646">
-      <c r="B646" s="22"/>
+      <c r="C646" s="27"/>
     </row>
     <row r="647">
-      <c r="B647" s="22"/>
+      <c r="C647" s="27"/>
     </row>
     <row r="648">
-      <c r="B648" s="22"/>
+      <c r="C648" s="27"/>
     </row>
     <row r="649">
-      <c r="B649" s="22"/>
+      <c r="C649" s="27"/>
     </row>
     <row r="650">
-      <c r="B650" s="22"/>
+      <c r="C650" s="27"/>
     </row>
     <row r="651">
-      <c r="B651" s="22"/>
+      <c r="C651" s="27"/>
     </row>
     <row r="652">
-      <c r="B652" s="22"/>
+      <c r="C652" s="27"/>
     </row>
     <row r="653">
-      <c r="B653" s="22"/>
+      <c r="C653" s="27"/>
     </row>
     <row r="654">
-      <c r="B654" s="22"/>
+      <c r="C654" s="27"/>
     </row>
     <row r="655">
-      <c r="B655" s="22"/>
+      <c r="C655" s="27"/>
     </row>
     <row r="656">
-      <c r="B656" s="22"/>
+      <c r="C656" s="27"/>
     </row>
     <row r="657">
-      <c r="B657" s="22"/>
+      <c r="C657" s="27"/>
     </row>
     <row r="658">
-      <c r="B658" s="22"/>
+      <c r="C658" s="27"/>
     </row>
     <row r="659">
-      <c r="B659" s="22"/>
+      <c r="C659" s="27"/>
     </row>
     <row r="660">
-      <c r="B660" s="22"/>
+      <c r="C660" s="27"/>
     </row>
     <row r="661">
-      <c r="B661" s="22"/>
+      <c r="C661" s="27"/>
     </row>
     <row r="662">
-      <c r="B662" s="22"/>
+      <c r="C662" s="27"/>
     </row>
     <row r="663">
-      <c r="B663" s="22"/>
+      <c r="C663" s="27"/>
     </row>
     <row r="664">
-      <c r="B664" s="22"/>
+      <c r="C664" s="27"/>
     </row>
     <row r="665">
-      <c r="B665" s="22"/>
+      <c r="C665" s="27"/>
     </row>
     <row r="666">
-      <c r="B666" s="22"/>
+      <c r="C666" s="27"/>
     </row>
     <row r="667">
-      <c r="B667" s="22"/>
+      <c r="C667" s="27"/>
     </row>
     <row r="668">
-      <c r="B668" s="22"/>
+      <c r="C668" s="27"/>
     </row>
     <row r="669">
-      <c r="B669" s="22"/>
+      <c r="C669" s="27"/>
     </row>
     <row r="670">
-      <c r="B670" s="22"/>
+      <c r="C670" s="27"/>
     </row>
     <row r="671">
-      <c r="B671" s="22"/>
+      <c r="C671" s="27"/>
     </row>
     <row r="672">
-      <c r="B672" s="22"/>
+      <c r="C672" s="27"/>
     </row>
     <row r="673">
-      <c r="B673" s="22"/>
+      <c r="C673" s="27"/>
     </row>
     <row r="674">
-      <c r="B674" s="22"/>
+      <c r="C674" s="27"/>
     </row>
     <row r="675">
-      <c r="B675" s="22"/>
+      <c r="C675" s="27"/>
     </row>
     <row r="676">
-      <c r="B676" s="22"/>
+      <c r="C676" s="27"/>
     </row>
     <row r="677">
-      <c r="B677" s="22"/>
+      <c r="C677" s="27"/>
     </row>
     <row r="678">
-      <c r="B678" s="22"/>
+      <c r="C678" s="27"/>
     </row>
     <row r="679">
-      <c r="B679" s="22"/>
+      <c r="C679" s="27"/>
     </row>
     <row r="680">
-      <c r="B680" s="22"/>
+      <c r="C680" s="27"/>
     </row>
     <row r="681">
-      <c r="B681" s="22"/>
+      <c r="C681" s="27"/>
     </row>
     <row r="682">
-      <c r="B682" s="22"/>
+      <c r="C682" s="27"/>
     </row>
     <row r="683">
-      <c r="B683" s="22"/>
+      <c r="C683" s="27"/>
     </row>
     <row r="684">
-      <c r="B684" s="22"/>
+      <c r="C684" s="27"/>
     </row>
     <row r="685">
-      <c r="B685" s="22"/>
+      <c r="C685" s="27"/>
     </row>
     <row r="686">
-      <c r="B686" s="22"/>
+      <c r="C686" s="27"/>
     </row>
     <row r="687">
-      <c r="B687" s="22"/>
+      <c r="C687" s="27"/>
     </row>
     <row r="688">
-      <c r="B688" s="22"/>
+      <c r="C688" s="27"/>
     </row>
     <row r="689">
-      <c r="B689" s="22"/>
+      <c r="C689" s="27"/>
     </row>
     <row r="690">
-      <c r="B690" s="22"/>
+      <c r="C690" s="27"/>
     </row>
     <row r="691">
-      <c r="B691" s="22"/>
+      <c r="C691" s="27"/>
     </row>
     <row r="692">
-      <c r="B692" s="22"/>
+      <c r="C692" s="27"/>
     </row>
     <row r="693">
-      <c r="B693" s="22"/>
+      <c r="C693" s="27"/>
     </row>
     <row r="694">
-      <c r="B694" s="22"/>
+      <c r="C694" s="27"/>
     </row>
     <row r="695">
-      <c r="B695" s="22"/>
+      <c r="C695" s="27"/>
     </row>
     <row r="696">
-      <c r="B696" s="22"/>
+      <c r="C696" s="27"/>
     </row>
     <row r="697">
-      <c r="B697" s="22"/>
+      <c r="C697" s="27"/>
     </row>
     <row r="698">
-      <c r="B698" s="22"/>
+      <c r="C698" s="27"/>
     </row>
     <row r="699">
-      <c r="B699" s="22"/>
+      <c r="C699" s="27"/>
     </row>
     <row r="700">
-      <c r="B700" s="22"/>
+      <c r="C700" s="27"/>
     </row>
     <row r="701">
-      <c r="B701" s="22"/>
+      <c r="C701" s="27"/>
     </row>
     <row r="702">
-      <c r="B702" s="22"/>
+      <c r="C702" s="27"/>
     </row>
     <row r="703">
-      <c r="B703" s="22"/>
+      <c r="C703" s="27"/>
     </row>
     <row r="704">
-      <c r="B704" s="22"/>
+      <c r="C704" s="27"/>
     </row>
     <row r="705">
-      <c r="B705" s="22"/>
+      <c r="C705" s="27"/>
     </row>
     <row r="706">
-      <c r="B706" s="22"/>
+      <c r="C706" s="27"/>
     </row>
     <row r="707">
-      <c r="B707" s="22"/>
+      <c r="C707" s="27"/>
     </row>
     <row r="708">
-      <c r="B708" s="22"/>
+      <c r="C708" s="27"/>
     </row>
     <row r="709">
-      <c r="B709" s="22"/>
+      <c r="C709" s="27"/>
     </row>
     <row r="710">
-      <c r="B710" s="22"/>
+      <c r="C710" s="27"/>
     </row>
     <row r="711">
-      <c r="B711" s="22"/>
+      <c r="C711" s="27"/>
     </row>
     <row r="712">
-      <c r="B712" s="22"/>
+      <c r="C712" s="27"/>
     </row>
     <row r="713">
-      <c r="B713" s="22"/>
+      <c r="C713" s="27"/>
     </row>
     <row r="714">
-      <c r="B714" s="22"/>
+      <c r="C714" s="27"/>
     </row>
     <row r="715">
-      <c r="B715" s="22"/>
+      <c r="C715" s="27"/>
     </row>
     <row r="716">
-      <c r="B716" s="22"/>
+      <c r="C716" s="27"/>
     </row>
     <row r="717">
-      <c r="B717" s="22"/>
+      <c r="C717" s="27"/>
     </row>
     <row r="718">
-      <c r="B718" s="22"/>
+      <c r="C718" s="27"/>
     </row>
     <row r="719">
-      <c r="B719" s="22"/>
+      <c r="C719" s="27"/>
     </row>
     <row r="720">
-      <c r="B720" s="22"/>
+      <c r="C720" s="27"/>
     </row>
     <row r="721">
-      <c r="B721" s="22"/>
+      <c r="C721" s="27"/>
     </row>
     <row r="722">
-      <c r="B722" s="22"/>
+      <c r="C722" s="27"/>
     </row>
     <row r="723">
-      <c r="B723" s="22"/>
+      <c r="C723" s="27"/>
     </row>
     <row r="724">
-      <c r="B724" s="22"/>
+      <c r="C724" s="27"/>
     </row>
     <row r="725">
-      <c r="B725" s="22"/>
+      <c r="C725" s="27"/>
     </row>
     <row r="726">
-      <c r="B726" s="22"/>
+      <c r="C726" s="27"/>
     </row>
     <row r="727">
-      <c r="B727" s="22"/>
+      <c r="C727" s="27"/>
     </row>
     <row r="728">
-      <c r="B728" s="22"/>
+      <c r="C728" s="27"/>
     </row>
     <row r="729">
-      <c r="B729" s="22"/>
+      <c r="C729" s="27"/>
     </row>
     <row r="730">
-      <c r="B730" s="22"/>
+      <c r="C730" s="27"/>
     </row>
     <row r="731">
-      <c r="B731" s="22"/>
+      <c r="C731" s="27"/>
     </row>
     <row r="732">
-      <c r="B732" s="22"/>
+      <c r="C732" s="27"/>
     </row>
     <row r="733">
-      <c r="B733" s="22"/>
+      <c r="C733" s="27"/>
     </row>
     <row r="734">
-      <c r="B734" s="22"/>
+      <c r="C734" s="27"/>
     </row>
     <row r="735">
-      <c r="B735" s="22"/>
+      <c r="C735" s="27"/>
     </row>
     <row r="736">
-      <c r="B736" s="22"/>
+      <c r="C736" s="27"/>
     </row>
     <row r="737">
-      <c r="B737" s="22"/>
+      <c r="C737" s="27"/>
     </row>
     <row r="738">
-      <c r="B738" s="22"/>
+      <c r="C738" s="27"/>
     </row>
     <row r="739">
-      <c r="B739" s="22"/>
+      <c r="C739" s="27"/>
     </row>
     <row r="740">
-      <c r="B740" s="22"/>
+      <c r="C740" s="27"/>
     </row>
     <row r="741">
-      <c r="B741" s="22"/>
+      <c r="C741" s="27"/>
     </row>
     <row r="742">
-      <c r="B742" s="22"/>
+      <c r="C742" s="27"/>
     </row>
     <row r="743">
-      <c r="B743" s="22"/>
+      <c r="C743" s="27"/>
     </row>
     <row r="744">
-      <c r="B744" s="22"/>
+      <c r="C744" s="27"/>
     </row>
     <row r="745">
-      <c r="B745" s="22"/>
+      <c r="C745" s="27"/>
     </row>
     <row r="746">
-      <c r="B746" s="22"/>
+      <c r="C746" s="27"/>
     </row>
     <row r="747">
-      <c r="B747" s="22"/>
+      <c r="C747" s="27"/>
     </row>
     <row r="748">
-      <c r="B748" s="22"/>
+      <c r="C748" s="27"/>
     </row>
     <row r="749">
-      <c r="B749" s="22"/>
+      <c r="C749" s="27"/>
     </row>
     <row r="750">
-      <c r="B750" s="22"/>
+      <c r="C750" s="27"/>
     </row>
     <row r="751">
-      <c r="B751" s="22"/>
+      <c r="C751" s="27"/>
     </row>
     <row r="752">
-      <c r="B752" s="22"/>
+      <c r="C752" s="27"/>
     </row>
     <row r="753">
-      <c r="B753" s="22"/>
+      <c r="C753" s="27"/>
     </row>
     <row r="754">
-      <c r="B754" s="22"/>
+      <c r="C754" s="27"/>
     </row>
     <row r="755">
-      <c r="B755" s="22"/>
+      <c r="C755" s="27"/>
     </row>
     <row r="756">
-      <c r="B756" s="22"/>
+      <c r="C756" s="27"/>
     </row>
     <row r="757">
-      <c r="B757" s="22"/>
+      <c r="C757" s="27"/>
     </row>
     <row r="758">
-      <c r="B758" s="22"/>
+      <c r="C758" s="27"/>
     </row>
     <row r="759">
-      <c r="B759" s="22"/>
+      <c r="C759" s="27"/>
     </row>
     <row r="760">
-      <c r="B760" s="22"/>
+      <c r="C760" s="27"/>
     </row>
     <row r="761">
-      <c r="B761" s="22"/>
+      <c r="C761" s="27"/>
     </row>
     <row r="762">
-      <c r="B762" s="22"/>
+      <c r="C762" s="27"/>
     </row>
     <row r="763">
-      <c r="B763" s="22"/>
+      <c r="C763" s="27"/>
     </row>
     <row r="764">
-      <c r="B764" s="22"/>
+      <c r="C764" s="27"/>
     </row>
     <row r="765">
-      <c r="B765" s="22"/>
+      <c r="C765" s="27"/>
     </row>
     <row r="766">
-      <c r="B766" s="22"/>
+      <c r="C766" s="27"/>
     </row>
     <row r="767">
-      <c r="B767" s="22"/>
+      <c r="C767" s="27"/>
     </row>
     <row r="768">
-      <c r="B768" s="22"/>
+      <c r="C768" s="27"/>
     </row>
     <row r="769">
-      <c r="B769" s="22"/>
+      <c r="C769" s="27"/>
     </row>
     <row r="770">
-      <c r="B770" s="22"/>
+      <c r="C770" s="27"/>
     </row>
     <row r="771">
-      <c r="B771" s="22"/>
+      <c r="C771" s="27"/>
     </row>
     <row r="772">
-      <c r="B772" s="22"/>
+      <c r="C772" s="27"/>
     </row>
     <row r="773">
-      <c r="B773" s="22"/>
+      <c r="C773" s="27"/>
     </row>
     <row r="774">
-      <c r="B774" s="22"/>
+      <c r="C774" s="27"/>
     </row>
     <row r="775">
-      <c r="B775" s="22"/>
+      <c r="C775" s="27"/>
     </row>
     <row r="776">
-      <c r="B776" s="22"/>
+      <c r="C776" s="27"/>
     </row>
     <row r="777">
-      <c r="B777" s="22"/>
+      <c r="C777" s="27"/>
     </row>
     <row r="778">
-      <c r="B778" s="22"/>
+      <c r="C778" s="27"/>
     </row>
     <row r="779">
-      <c r="B779" s="22"/>
+      <c r="C779" s="27"/>
     </row>
     <row r="780">
-      <c r="B780" s="22"/>
+      <c r="C780" s="27"/>
     </row>
     <row r="781">
-      <c r="B781" s="22"/>
+      <c r="C781" s="27"/>
     </row>
     <row r="782">
-      <c r="B782" s="22"/>
+      <c r="C782" s="27"/>
     </row>
     <row r="783">
-      <c r="B783" s="22"/>
+      <c r="C783" s="27"/>
     </row>
     <row r="784">
-      <c r="B784" s="22"/>
+      <c r="C784" s="27"/>
     </row>
     <row r="785">
-      <c r="B785" s="22"/>
+      <c r="C785" s="27"/>
     </row>
     <row r="786">
-      <c r="B786" s="22"/>
+      <c r="C786" s="27"/>
     </row>
     <row r="787">
-      <c r="B787" s="22"/>
+      <c r="C787" s="27"/>
     </row>
     <row r="788">
-      <c r="B788" s="22"/>
+      <c r="C788" s="27"/>
     </row>
     <row r="789">
-      <c r="B789" s="22"/>
+      <c r="C789" s="27"/>
     </row>
     <row r="790">
-      <c r="B790" s="22"/>
+      <c r="C790" s="27"/>
     </row>
     <row r="791">
-      <c r="B791" s="22"/>
+      <c r="C791" s="27"/>
     </row>
     <row r="792">
-      <c r="B792" s="22"/>
+      <c r="C792" s="27"/>
     </row>
     <row r="793">
-      <c r="B793" s="22"/>
+      <c r="C793" s="27"/>
     </row>
     <row r="794">
-      <c r="B794" s="22"/>
+      <c r="C794" s="27"/>
     </row>
     <row r="795">
-      <c r="B795" s="22"/>
+      <c r="C795" s="27"/>
     </row>
     <row r="796">
-      <c r="B796" s="22"/>
+      <c r="C796" s="27"/>
     </row>
     <row r="797">
-      <c r="B797" s="22"/>
+      <c r="C797" s="27"/>
     </row>
     <row r="798">
-      <c r="B798" s="22"/>
+      <c r="C798" s="27"/>
     </row>
     <row r="799">
-      <c r="B799" s="22"/>
+      <c r="C799" s="27"/>
     </row>
     <row r="800">
-      <c r="B800" s="22"/>
+      <c r="C800" s="27"/>
     </row>
     <row r="801">
-      <c r="B801" s="22"/>
+      <c r="C801" s="27"/>
     </row>
     <row r="802">
-      <c r="B802" s="22"/>
+      <c r="C802" s="27"/>
     </row>
     <row r="803">
-      <c r="B803" s="22"/>
+      <c r="C803" s="27"/>
     </row>
     <row r="804">
-      <c r="B804" s="22"/>
+      <c r="C804" s="27"/>
     </row>
     <row r="805">
-      <c r="B805" s="22"/>
+      <c r="C805" s="27"/>
     </row>
     <row r="806">
-      <c r="B806" s="22"/>
+      <c r="C806" s="27"/>
     </row>
     <row r="807">
-      <c r="B807" s="22"/>
+      <c r="C807" s="27"/>
     </row>
     <row r="808">
-      <c r="B808" s="22"/>
+      <c r="C808" s="27"/>
     </row>
     <row r="809">
-      <c r="B809" s="22"/>
+      <c r="C809" s="27"/>
     </row>
     <row r="810">
-      <c r="B810" s="22"/>
+      <c r="C810" s="27"/>
     </row>
     <row r="811">
-      <c r="B811" s="22"/>
+      <c r="C811" s="27"/>
     </row>
     <row r="812">
-      <c r="B812" s="22"/>
+      <c r="C812" s="27"/>
     </row>
     <row r="813">
-      <c r="B813" s="22"/>
+      <c r="C813" s="27"/>
     </row>
     <row r="814">
-      <c r="B814" s="22"/>
+      <c r="C814" s="27"/>
     </row>
     <row r="815">
-      <c r="B815" s="22"/>
+      <c r="C815" s="27"/>
     </row>
     <row r="816">
-      <c r="B816" s="22"/>
+      <c r="C816" s="27"/>
     </row>
     <row r="817">
-      <c r="B817" s="22"/>
+      <c r="C817" s="27"/>
     </row>
     <row r="818">
-      <c r="B818" s="22"/>
+      <c r="C818" s="27"/>
     </row>
     <row r="819">
-      <c r="B819" s="22"/>
+      <c r="C819" s="27"/>
     </row>
     <row r="820">
-      <c r="B820" s="22"/>
+      <c r="C820" s="27"/>
     </row>
     <row r="821">
-      <c r="B821" s="22"/>
+      <c r="C821" s="27"/>
     </row>
     <row r="822">
-      <c r="B822" s="22"/>
+      <c r="C822" s="27"/>
     </row>
     <row r="823">
-      <c r="B823" s="22"/>
+      <c r="C823" s="27"/>
     </row>
     <row r="824">
-      <c r="B824" s="22"/>
+      <c r="C824" s="27"/>
     </row>
     <row r="825">
-      <c r="B825" s="22"/>
+      <c r="C825" s="27"/>
     </row>
     <row r="826">
-      <c r="B826" s="22"/>
+      <c r="C826" s="27"/>
     </row>
     <row r="827">
-      <c r="B827" s="22"/>
+      <c r="C827" s="27"/>
     </row>
     <row r="828">
-      <c r="B828" s="22"/>
+      <c r="C828" s="27"/>
     </row>
     <row r="829">
-      <c r="B829" s="22"/>
+      <c r="C829" s="27"/>
     </row>
     <row r="830">
-      <c r="B830" s="22"/>
+      <c r="C830" s="27"/>
     </row>
     <row r="831">
-      <c r="B831" s="22"/>
+      <c r="C831" s="27"/>
     </row>
     <row r="832">
-      <c r="B832" s="22"/>
+      <c r="C832" s="27"/>
     </row>
     <row r="833">
-      <c r="B833" s="22"/>
+      <c r="C833" s="27"/>
     </row>
     <row r="834">
-      <c r="B834" s="22"/>
+      <c r="C834" s="27"/>
     </row>
     <row r="835">
-      <c r="B835" s="22"/>
+      <c r="C835" s="27"/>
     </row>
     <row r="836">
-      <c r="B836" s="22"/>
+      <c r="C836" s="27"/>
     </row>
     <row r="837">
-      <c r="B837" s="22"/>
+      <c r="C837" s="27"/>
     </row>
     <row r="838">
-      <c r="B838" s="22"/>
+      <c r="C838" s="27"/>
     </row>
     <row r="839">
-      <c r="B839" s="22"/>
+      <c r="C839" s="27"/>
     </row>
     <row r="840">
-      <c r="B840" s="22"/>
+      <c r="C840" s="27"/>
     </row>
     <row r="841">
-      <c r="B841" s="22"/>
+      <c r="C841" s="27"/>
     </row>
     <row r="842">
-      <c r="B842" s="22"/>
+      <c r="C842" s="27"/>
     </row>
     <row r="843">
-      <c r="B843" s="22"/>
+      <c r="C843" s="27"/>
     </row>
     <row r="844">
-      <c r="B844" s="22"/>
+      <c r="C844" s="27"/>
     </row>
     <row r="845">
-      <c r="B845" s="22"/>
+      <c r="C845" s="27"/>
     </row>
     <row r="846">
-      <c r="B846" s="22"/>
+      <c r="C846" s="27"/>
     </row>
     <row r="847">
-      <c r="B847" s="22"/>
+      <c r="C847" s="27"/>
     </row>
     <row r="848">
-      <c r="B848" s="22"/>
+      <c r="C848" s="27"/>
     </row>
     <row r="849">
-      <c r="B849" s="22"/>
+      <c r="C849" s="27"/>
     </row>
     <row r="850">
-      <c r="B850" s="22"/>
+      <c r="C850" s="27"/>
     </row>
     <row r="851">
-      <c r="B851" s="22"/>
+      <c r="C851" s="27"/>
     </row>
     <row r="852">
-      <c r="B852" s="22"/>
+      <c r="C852" s="27"/>
     </row>
     <row r="853">
-      <c r="B853" s="22"/>
+      <c r="C853" s="27"/>
     </row>
     <row r="854">
-      <c r="B854" s="22"/>
+      <c r="C854" s="27"/>
     </row>
     <row r="855">
-      <c r="B855" s="22"/>
+      <c r="C855" s="27"/>
     </row>
     <row r="856">
-      <c r="B856" s="22"/>
+      <c r="C856" s="27"/>
     </row>
     <row r="857">
-      <c r="B857" s="22"/>
+      <c r="C857" s="27"/>
     </row>
     <row r="858">
-      <c r="B858" s="22"/>
+      <c r="C858" s="27"/>
     </row>
     <row r="859">
-      <c r="B859" s="22"/>
+      <c r="C859" s="27"/>
     </row>
     <row r="860">
-      <c r="B860" s="22"/>
+      <c r="C860" s="27"/>
     </row>
     <row r="861">
-      <c r="B861" s="22"/>
+      <c r="C861" s="27"/>
     </row>
     <row r="862">
-      <c r="B862" s="22"/>
+      <c r="C862" s="27"/>
     </row>
     <row r="863">
-      <c r="B863" s="22"/>
+      <c r="C863" s="27"/>
     </row>
     <row r="864">
-      <c r="B864" s="22"/>
+      <c r="C864" s="27"/>
     </row>
     <row r="865">
-      <c r="B865" s="22"/>
+      <c r="C865" s="27"/>
     </row>
     <row r="866">
-      <c r="B866" s="22"/>
+      <c r="C866" s="27"/>
     </row>
     <row r="867">
-      <c r="B867" s="22"/>
+      <c r="C867" s="27"/>
     </row>
     <row r="868">
-      <c r="B868" s="22"/>
+      <c r="C868" s="27"/>
     </row>
     <row r="869">
-      <c r="B869" s="22"/>
+      <c r="C869" s="27"/>
     </row>
     <row r="870">
-      <c r="B870" s="22"/>
+      <c r="C870" s="27"/>
     </row>
     <row r="871">
-      <c r="B871" s="22"/>
+      <c r="C871" s="27"/>
     </row>
     <row r="872">
-      <c r="B872" s="22"/>
+      <c r="C872" s="27"/>
     </row>
     <row r="873">
-      <c r="B873" s="22"/>
+      <c r="C873" s="27"/>
     </row>
     <row r="874">
-      <c r="B874" s="22"/>
+      <c r="C874" s="27"/>
     </row>
     <row r="875">
-      <c r="B875" s="22"/>
+      <c r="C875" s="27"/>
     </row>
     <row r="876">
-      <c r="B876" s="22"/>
+      <c r="C876" s="27"/>
     </row>
     <row r="877">
-      <c r="B877" s="22"/>
+      <c r="C877" s="27"/>
     </row>
     <row r="878">
-      <c r="B878" s="22"/>
+      <c r="C878" s="27"/>
     </row>
     <row r="879">
-      <c r="B879" s="22"/>
+      <c r="C879" s="27"/>
     </row>
     <row r="880">
-      <c r="B880" s="22"/>
+      <c r="C880" s="27"/>
     </row>
     <row r="881">
-      <c r="B881" s="22"/>
+      <c r="C881" s="27"/>
     </row>
     <row r="882">
-      <c r="B882" s="22"/>
+      <c r="C882" s="27"/>
     </row>
     <row r="883">
-      <c r="B883" s="22"/>
+      <c r="C883" s="27"/>
     </row>
     <row r="884">
-      <c r="B884" s="22"/>
+      <c r="C884" s="27"/>
     </row>
     <row r="885">
-      <c r="B885" s="22"/>
+      <c r="C885" s="27"/>
     </row>
     <row r="886">
-      <c r="B886" s="22"/>
+      <c r="C886" s="27"/>
     </row>
     <row r="887">
-      <c r="B887" s="22"/>
+      <c r="C887" s="27"/>
     </row>
     <row r="888">
-      <c r="B888" s="22"/>
+      <c r="C888" s="27"/>
     </row>
     <row r="889">
-      <c r="B889" s="22"/>
+      <c r="C889" s="27"/>
     </row>
     <row r="890">
-      <c r="B890" s="22"/>
+      <c r="C890" s="27"/>
     </row>
     <row r="891">
-      <c r="B891" s="22"/>
+      <c r="C891" s="27"/>
     </row>
     <row r="892">
-      <c r="B892" s="22"/>
+      <c r="C892" s="27"/>
     </row>
     <row r="893">
-      <c r="B893" s="22"/>
+      <c r="C893" s="27"/>
     </row>
     <row r="894">
-      <c r="B894" s="22"/>
+      <c r="C894" s="27"/>
     </row>
     <row r="895">
-      <c r="B895" s="22"/>
+      <c r="C895" s="27"/>
     </row>
     <row r="896">
-      <c r="B896" s="22"/>
+      <c r="C896" s="27"/>
     </row>
     <row r="897">
-      <c r="B897" s="22"/>
+      <c r="C897" s="27"/>
     </row>
     <row r="898">
-      <c r="B898" s="22"/>
+      <c r="C898" s="27"/>
     </row>
     <row r="899">
-      <c r="B899" s="22"/>
+      <c r="C899" s="27"/>
     </row>
     <row r="900">
-      <c r="B900" s="22"/>
+      <c r="C900" s="27"/>
     </row>
     <row r="901">
-      <c r="B901" s="22"/>
+      <c r="C901" s="27"/>
     </row>
     <row r="902">
-      <c r="B902" s="22"/>
+      <c r="C902" s="27"/>
     </row>
     <row r="903">
-      <c r="B903" s="22"/>
+      <c r="C903" s="27"/>
     </row>
     <row r="904">
-      <c r="B904" s="22"/>
+      <c r="C904" s="27"/>
     </row>
     <row r="905">
-      <c r="B905" s="22"/>
+      <c r="C905" s="27"/>
     </row>
     <row r="906">
-      <c r="B906" s="22"/>
+      <c r="C906" s="27"/>
     </row>
     <row r="907">
-      <c r="B907" s="22"/>
+      <c r="C907" s="27"/>
     </row>
     <row r="908">
-      <c r="B908" s="22"/>
+      <c r="C908" s="27"/>
     </row>
     <row r="909">
-      <c r="B909" s="22"/>
+      <c r="C909" s="27"/>
     </row>
     <row r="910">
-      <c r="B910" s="22"/>
+      <c r="C910" s="27"/>
     </row>
     <row r="911">
-      <c r="B911" s="22"/>
+      <c r="C911" s="27"/>
     </row>
     <row r="912">
-      <c r="B912" s="22"/>
+      <c r="C912" s="27"/>
     </row>
     <row r="913">
-      <c r="B913" s="22"/>
+      <c r="C913" s="27"/>
     </row>
     <row r="914">
-      <c r="B914" s="22"/>
+      <c r="C914" s="27"/>
     </row>
     <row r="915">
-      <c r="B915" s="22"/>
+      <c r="C915" s="27"/>
     </row>
     <row r="916">
-      <c r="B916" s="22"/>
+      <c r="C916" s="27"/>
     </row>
     <row r="917">
-      <c r="B917" s="22"/>
+      <c r="C917" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="B3"/>
-    <hyperlink r:id="rId4" ref="C3"/>
-    <hyperlink r:id="rId5" ref="B4"/>
-    <hyperlink r:id="rId6" ref="C4"/>
-    <hyperlink r:id="rId7" ref="B5"/>
-    <hyperlink r:id="rId8" ref="C5"/>
-    <hyperlink r:id="rId9" ref="B6"/>
-    <hyperlink r:id="rId10" ref="C6"/>
-    <hyperlink r:id="rId11" ref="B7"/>
-    <hyperlink r:id="rId12" ref="C7"/>
-    <hyperlink r:id="rId13" ref="B8"/>
-    <hyperlink r:id="rId14" ref="C8"/>
-    <hyperlink r:id="rId15" ref="B9"/>
-    <hyperlink r:id="rId16" ref="C9"/>
-    <hyperlink r:id="rId17" ref="B10"/>
-    <hyperlink r:id="rId18" ref="C10"/>
-    <hyperlink r:id="rId19" ref="B11"/>
-    <hyperlink r:id="rId20" ref="C11"/>
-    <hyperlink r:id="rId21" ref="B12"/>
-    <hyperlink r:id="rId22" ref="C12"/>
-    <hyperlink r:id="rId23" ref="B13"/>
-    <hyperlink r:id="rId24" ref="C13"/>
-    <hyperlink r:id="rId25" ref="B14"/>
-    <hyperlink r:id="rId26" ref="C14"/>
-    <hyperlink r:id="rId27" ref="B15"/>
-    <hyperlink r:id="rId28" ref="C15"/>
-    <hyperlink r:id="rId29" ref="B16"/>
-    <hyperlink r:id="rId30" ref="C16"/>
-    <hyperlink r:id="rId31" ref="B17"/>
-    <hyperlink r:id="rId32" ref="C17"/>
-    <hyperlink r:id="rId33" ref="B18"/>
-    <hyperlink r:id="rId34" ref="C18"/>
-    <hyperlink r:id="rId35" ref="B19"/>
-    <hyperlink r:id="rId36" ref="C19"/>
-    <hyperlink r:id="rId37" ref="B20"/>
-    <hyperlink r:id="rId38" ref="C20"/>
-    <hyperlink r:id="rId39" ref="B21"/>
-    <hyperlink r:id="rId40" ref="C21"/>
-    <hyperlink r:id="rId41" ref="B22"/>
-    <hyperlink r:id="rId42" ref="C22"/>
-    <hyperlink r:id="rId43" ref="B23"/>
-    <hyperlink r:id="rId44" ref="C23"/>
-    <hyperlink r:id="rId45" ref="C24"/>
-    <hyperlink r:id="rId46" ref="C25"/>
-    <hyperlink r:id="rId47" ref="C26"/>
-    <hyperlink r:id="rId48" ref="C27"/>
-    <hyperlink r:id="rId49" ref="C28"/>
-    <hyperlink r:id="rId50" ref="C29"/>
-    <hyperlink r:id="rId51" ref="C30"/>
-    <hyperlink r:id="rId52" ref="C31"/>
-    <hyperlink r:id="rId53" ref="B32"/>
-    <hyperlink r:id="rId54" ref="C32"/>
-    <hyperlink r:id="rId55" ref="B33"/>
-    <hyperlink r:id="rId56" ref="C33"/>
-    <hyperlink r:id="rId57" ref="B34"/>
-    <hyperlink r:id="rId58" ref="C34"/>
-    <hyperlink r:id="rId59" location="tab_focus" ref="C35"/>
-    <hyperlink r:id="rId60" location="tab_focus" ref="C36"/>
-    <hyperlink r:id="rId61" location="tab_focus" ref="C37"/>
-    <hyperlink r:id="rId62" location="tab_focus" ref="C38"/>
-    <hyperlink r:id="rId63" ref="C39"/>
-    <hyperlink r:id="rId64" location="tab_focus" ref="C40"/>
-    <hyperlink r:id="rId65" location="tab_focus" ref="C41"/>
-    <hyperlink r:id="rId66" location="tab_focus" ref="C42"/>
-    <hyperlink r:id="rId67" ref="C43"/>
-    <hyperlink r:id="rId68" ref="C44"/>
-    <hyperlink r:id="rId69" ref="C45"/>
-    <hyperlink r:id="rId70" ref="C46"/>
-    <hyperlink r:id="rId71" ref="C47"/>
-    <hyperlink r:id="rId72" ref="C48"/>
-    <hyperlink r:id="rId73" ref="C49"/>
-    <hyperlink r:id="rId74" ref="C50"/>
-    <hyperlink r:id="rId75" ref="C51"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
+    <hyperlink r:id="rId3" ref="C3"/>
+    <hyperlink r:id="rId4" ref="D3"/>
+    <hyperlink r:id="rId5" ref="C4"/>
+    <hyperlink r:id="rId6" ref="D4"/>
+    <hyperlink r:id="rId7" ref="C5"/>
+    <hyperlink r:id="rId8" ref="D5"/>
+    <hyperlink r:id="rId9" ref="C6"/>
+    <hyperlink r:id="rId10" ref="D6"/>
+    <hyperlink r:id="rId11" ref="C7"/>
+    <hyperlink r:id="rId12" ref="D7"/>
+    <hyperlink r:id="rId13" ref="C8"/>
+    <hyperlink r:id="rId14" ref="D8"/>
+    <hyperlink r:id="rId15" ref="C9"/>
+    <hyperlink r:id="rId16" ref="D9"/>
+    <hyperlink r:id="rId17" ref="C10"/>
+    <hyperlink r:id="rId18" ref="D10"/>
+    <hyperlink r:id="rId19" ref="C11"/>
+    <hyperlink r:id="rId20" ref="D11"/>
+    <hyperlink r:id="rId21" ref="C12"/>
+    <hyperlink r:id="rId22" ref="D12"/>
+    <hyperlink r:id="rId23" ref="C13"/>
+    <hyperlink r:id="rId24" ref="D13"/>
+    <hyperlink r:id="rId25" ref="C14"/>
+    <hyperlink r:id="rId26" ref="D14"/>
+    <hyperlink r:id="rId27" ref="C15"/>
+    <hyperlink r:id="rId28" ref="D15"/>
+    <hyperlink r:id="rId29" ref="C16"/>
+    <hyperlink r:id="rId30" ref="D16"/>
+    <hyperlink r:id="rId31" ref="C17"/>
+    <hyperlink r:id="rId32" ref="D17"/>
+    <hyperlink r:id="rId33" ref="C18"/>
+    <hyperlink r:id="rId34" ref="D18"/>
+    <hyperlink r:id="rId35" ref="C19"/>
+    <hyperlink r:id="rId36" ref="D19"/>
+    <hyperlink r:id="rId37" ref="C20"/>
+    <hyperlink r:id="rId38" ref="D20"/>
+    <hyperlink r:id="rId39" ref="C21"/>
+    <hyperlink r:id="rId40" ref="D21"/>
+    <hyperlink r:id="rId41" ref="C22"/>
+    <hyperlink r:id="rId42" ref="D22"/>
+    <hyperlink r:id="rId43" ref="C23"/>
+    <hyperlink r:id="rId44" ref="D23"/>
+    <hyperlink r:id="rId45" ref="D24"/>
+    <hyperlink r:id="rId46" ref="D25"/>
+    <hyperlink r:id="rId47" ref="D26"/>
+    <hyperlink r:id="rId48" ref="D27"/>
+    <hyperlink r:id="rId49" ref="D28"/>
+    <hyperlink r:id="rId50" ref="D29"/>
+    <hyperlink r:id="rId51" ref="D30"/>
+    <hyperlink r:id="rId52" ref="D31"/>
+    <hyperlink r:id="rId53" ref="C32"/>
+    <hyperlink r:id="rId54" ref="D32"/>
+    <hyperlink r:id="rId55" ref="C33"/>
+    <hyperlink r:id="rId56" ref="D33"/>
+    <hyperlink r:id="rId57" ref="C34"/>
+    <hyperlink r:id="rId58" ref="D34"/>
+    <hyperlink r:id="rId59" location="tab_focus" ref="D35"/>
+    <hyperlink r:id="rId60" location="tab_focus" ref="D36"/>
+    <hyperlink r:id="rId61" location="tab_focus" ref="D37"/>
+    <hyperlink r:id="rId62" location="tab_focus" ref="D38"/>
+    <hyperlink r:id="rId63" ref="D39"/>
+    <hyperlink r:id="rId64" location="tab_focus" ref="D40"/>
+    <hyperlink r:id="rId65" location="tab_focus" ref="D41"/>
+    <hyperlink r:id="rId66" location="tab_focus" ref="D42"/>
+    <hyperlink r:id="rId67" ref="D43"/>
+    <hyperlink r:id="rId68" ref="D44"/>
+    <hyperlink r:id="rId69" ref="D45"/>
+    <hyperlink r:id="rId70" ref="D46"/>
+    <hyperlink r:id="rId71" ref="D47"/>
+    <hyperlink r:id="rId72" ref="D48"/>
+    <hyperlink r:id="rId73" ref="D49"/>
+    <hyperlink r:id="rId74" ref="D50"/>
+    <hyperlink r:id="rId75" ref="D51"/>
   </hyperlinks>
   <drawing r:id="rId76"/>
 </worksheet>
